--- a/data_as_provided/Scenario Expansion 23000.xlsx
+++ b/data_as_provided/Scenario Expansion 23000.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/mert2014_ox_ac_uk/Documents/ARC/Scenarios/Dwellings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline data" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="67">
   <si>
     <t>Target</t>
   </si>
@@ -182,6 +187,9 @@
     <t>No of extra dwellings to build</t>
   </si>
   <si>
+    <t>14,660 per annum (based on dwelling completions 2007-2017) + 8,340 extra household split between 7 major conurbations</t>
+  </si>
+  <si>
     <t>% of new builds</t>
   </si>
   <si>
@@ -221,16 +229,19 @@
     <t>Change</t>
   </si>
   <si>
+    <t>2050 people</t>
+  </si>
+  <si>
+    <t>2017 people</t>
+  </si>
+  <si>
     <t>Estimated number of employed people by local authorities in Arc</t>
   </si>
   <si>
-    <t>14,660 per annum, based on dwelling additions 2007-2017</t>
+    <t>29,436 per annum, based on employment per dwelling (23,000 dwellings)</t>
   </si>
   <si>
-    <t>14,660 per annum (based on dwelling completions 2007-2017) + 8,340 extra household split between 7 major conurbations</t>
-  </si>
-  <si>
-    <t>29,436 per annum, based on employment per dwelling (23,000 dwellings)</t>
+    <t>14,660 per annum, based on dwelling additions 2007-2017</t>
   </si>
 </sst>
 </file>
@@ -349,7 +360,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -422,6 +433,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -447,7 +462,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -508,7 +523,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -517,6 +531,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1081,97 +1112,97 @@
                   <c:v>59222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60163.199999999997</c:v>
+                  <c:v>60330</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61104.399999999994</c:v>
+                  <c:v>61438</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62045.599999999991</c:v>
+                  <c:v>62546</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62986.799999999988</c:v>
+                  <c:v>63654</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63927.999999999985</c:v>
+                  <c:v>64762</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64869.199999999983</c:v>
+                  <c:v>65870</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>65810.39999999998</c:v>
+                  <c:v>66978</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66751.599999999977</c:v>
+                  <c:v>68086</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67692.799999999974</c:v>
+                  <c:v>69194</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68633.999999999971</c:v>
+                  <c:v>70302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>69575.199999999968</c:v>
+                  <c:v>71410</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70516.399999999965</c:v>
+                  <c:v>72518</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>71457.599999999962</c:v>
+                  <c:v>73626</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72398.799999999959</c:v>
+                  <c:v>74734</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>73339.999999999956</c:v>
+                  <c:v>75842</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>74281.199999999953</c:v>
+                  <c:v>76950</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>75222.399999999951</c:v>
+                  <c:v>78058</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76163.599999999948</c:v>
+                  <c:v>79166</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>77104.799999999945</c:v>
+                  <c:v>80274</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>78045.999999999942</c:v>
+                  <c:v>81382</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>78987.199999999939</c:v>
+                  <c:v>82490</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>79928.399999999936</c:v>
+                  <c:v>83598</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>80869.599999999933</c:v>
+                  <c:v>84706</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81810.79999999993</c:v>
+                  <c:v>85814</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82751.999999999927</c:v>
+                  <c:v>86922</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83693.199999999924</c:v>
+                  <c:v>88030</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>84634.399999999921</c:v>
+                  <c:v>89138</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>85575.599999999919</c:v>
+                  <c:v>90246</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>86516.799999999916</c:v>
+                  <c:v>91354</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87457.999999999913</c:v>
+                  <c:v>92462</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>88399.19999999991</c:v>
+                  <c:v>93570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,97 +3754,97 @@
                   <c:v>74076</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76536</c:v>
+                  <c:v>75952.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78996</c:v>
+                  <c:v>77828.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81456</c:v>
+                  <c:v>79704.599999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83916</c:v>
+                  <c:v>81580.799999999988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86376</c:v>
+                  <c:v>83456.999999999985</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88836</c:v>
+                  <c:v>85333.199999999983</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91296</c:v>
+                  <c:v>87209.39999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93756</c:v>
+                  <c:v>89085.599999999977</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96216</c:v>
+                  <c:v>90961.799999999974</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>98676</c:v>
+                  <c:v>92837.999999999971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>101136</c:v>
+                  <c:v>94714.199999999968</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>103596</c:v>
+                  <c:v>96590.399999999965</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>106056</c:v>
+                  <c:v>98466.599999999962</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>108516</c:v>
+                  <c:v>100342.79999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>110976</c:v>
+                  <c:v>102218.99999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>113436</c:v>
+                  <c:v>104095.19999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115896</c:v>
+                  <c:v>105971.39999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>118356</c:v>
+                  <c:v>107847.59999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>120816</c:v>
+                  <c:v>109723.79999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>123276</c:v>
+                  <c:v>111599.99999999994</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>125736</c:v>
+                  <c:v>113476.19999999994</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>128196</c:v>
+                  <c:v>115352.39999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>130656</c:v>
+                  <c:v>117228.59999999993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>133116</c:v>
+                  <c:v>119104.79999999993</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>135576</c:v>
+                  <c:v>120980.99999999993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>138036</c:v>
+                  <c:v>122857.19999999992</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>140496</c:v>
+                  <c:v>124733.39999999992</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>142956</c:v>
+                  <c:v>126609.59999999992</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>145416</c:v>
+                  <c:v>128485.79999999992</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>147876</c:v>
+                  <c:v>130361.99999999991</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>150336</c:v>
+                  <c:v>132238.19999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,97 +4749,97 @@
                   <c:v>78924</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79655.600000000006</c:v>
+                  <c:v>80656.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80387.200000000012</c:v>
+                  <c:v>82388.799999999988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81118.800000000017</c:v>
+                  <c:v>84121.199999999983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81850.400000000023</c:v>
+                  <c:v>85853.599999999977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82582.000000000029</c:v>
+                  <c:v>87585.999999999971</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83313.600000000035</c:v>
+                  <c:v>89318.399999999965</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84045.200000000041</c:v>
+                  <c:v>91050.799999999959</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84776.800000000047</c:v>
+                  <c:v>92783.199999999953</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85508.400000000052</c:v>
+                  <c:v>94515.599999999948</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86240.000000000058</c:v>
+                  <c:v>96247.999999999942</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>86971.600000000064</c:v>
+                  <c:v>97980.399999999936</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>87703.20000000007</c:v>
+                  <c:v>99712.79999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>88434.800000000076</c:v>
+                  <c:v>101445.19999999992</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>89166.400000000081</c:v>
+                  <c:v>103177.59999999992</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>89898.000000000087</c:v>
+                  <c:v>104909.99999999991</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>90629.600000000093</c:v>
+                  <c:v>106642.39999999991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>91361.200000000099</c:v>
+                  <c:v>108374.7999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>92092.800000000105</c:v>
+                  <c:v>110107.1999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>92824.400000000111</c:v>
+                  <c:v>111839.59999999989</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>93556.000000000116</c:v>
+                  <c:v>113571.99999999988</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>94287.600000000122</c:v>
+                  <c:v>115304.39999999988</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>95019.200000000128</c:v>
+                  <c:v>117036.79999999987</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95750.800000000134</c:v>
+                  <c:v>118769.19999999987</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>96482.40000000014</c:v>
+                  <c:v>120501.59999999986</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>97214.000000000146</c:v>
+                  <c:v>122233.99999999985</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>97945.600000000151</c:v>
+                  <c:v>123966.39999999985</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>98677.200000000157</c:v>
+                  <c:v>125698.79999999984</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>99408.800000000163</c:v>
+                  <c:v>127431.19999999984</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>100140.40000000017</c:v>
+                  <c:v>129163.59999999983</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>100872.00000000017</c:v>
+                  <c:v>130895.99999999983</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>101603.60000000018</c:v>
+                  <c:v>132628.39999999982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5050,97 +5081,97 @@
                   <c:v>113225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>118056</c:v>
+                  <c:v>117222</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122887</c:v>
+                  <c:v>121219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127718</c:v>
+                  <c:v>125216</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132549</c:v>
+                  <c:v>129213</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>137380</c:v>
+                  <c:v>133210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>142211</c:v>
+                  <c:v>137207</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>147042</c:v>
+                  <c:v>141204</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>151873</c:v>
+                  <c:v>145201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>156704</c:v>
+                  <c:v>149198</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>161535</c:v>
+                  <c:v>153195</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>166366</c:v>
+                  <c:v>157192</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>171197</c:v>
+                  <c:v>161189</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>176028</c:v>
+                  <c:v>165186</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>180859</c:v>
+                  <c:v>169183</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185690</c:v>
+                  <c:v>173180</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>190521</c:v>
+                  <c:v>177177</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>195352</c:v>
+                  <c:v>181174</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>200183</c:v>
+                  <c:v>185171</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>205014</c:v>
+                  <c:v>189168</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>209845</c:v>
+                  <c:v>193165</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>214676</c:v>
+                  <c:v>197162</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>219507</c:v>
+                  <c:v>201159</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>224338</c:v>
+                  <c:v>205156</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>229169</c:v>
+                  <c:v>209153</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>234000</c:v>
+                  <c:v>213150</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>238831</c:v>
+                  <c:v>217147</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>243662</c:v>
+                  <c:v>221144</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>248493</c:v>
+                  <c:v>225141</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>253324</c:v>
+                  <c:v>229138</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>258155</c:v>
+                  <c:v>233135</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>262986</c:v>
+                  <c:v>237132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9025,97 +9056,97 @@
                   <c:v>67394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68382.2</c:v>
+                  <c:v>68632.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>69370.399999999994</c:v>
+                  <c:v>69870.799999999988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70358.599999999991</c:v>
+                  <c:v>71109.199999999983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71346.799999999988</c:v>
+                  <c:v>72347.599999999977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72334.999999999985</c:v>
+                  <c:v>73585.999999999971</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>73323.199999999983</c:v>
+                  <c:v>74824.399999999965</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74311.39999999998</c:v>
+                  <c:v>76062.799999999959</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75299.599999999977</c:v>
+                  <c:v>77301.199999999953</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76287.799999999974</c:v>
+                  <c:v>78539.599999999948</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77275.999999999971</c:v>
+                  <c:v>79777.999999999942</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78264.199999999968</c:v>
+                  <c:v>81016.399999999936</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79252.399999999965</c:v>
+                  <c:v>82254.79999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80240.599999999962</c:v>
+                  <c:v>83493.199999999924</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81228.799999999959</c:v>
+                  <c:v>84731.599999999919</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>82216.999999999956</c:v>
+                  <c:v>85969.999999999913</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83205.199999999953</c:v>
+                  <c:v>87208.399999999907</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>84193.399999999951</c:v>
+                  <c:v>88446.799999999901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85181.599999999948</c:v>
+                  <c:v>89685.199999999895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86169.799999999945</c:v>
+                  <c:v>90923.599999999889</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>87157.999999999942</c:v>
+                  <c:v>92161.999999999884</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88146.199999999939</c:v>
+                  <c:v>93400.399999999878</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>89134.399999999936</c:v>
+                  <c:v>94638.799999999872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>90122.599999999933</c:v>
+                  <c:v>95877.199999999866</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>91110.79999999993</c:v>
+                  <c:v>97115.59999999986</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92098.999999999927</c:v>
+                  <c:v>98353.999999999854</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93087.199999999924</c:v>
+                  <c:v>99592.399999999849</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>94075.399999999921</c:v>
+                  <c:v>100830.79999999984</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>95063.599999999919</c:v>
+                  <c:v>102069.19999999984</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>96051.799999999916</c:v>
+                  <c:v>103307.59999999983</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>97039.999999999913</c:v>
+                  <c:v>104545.99999999983</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>98028.19999999991</c:v>
+                  <c:v>105784.39999999982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9134,11 +9165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138253056"/>
-        <c:axId val="138254592"/>
+        <c:axId val="746498840"/>
+        <c:axId val="746499232"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="138253056"/>
+        <c:axId val="746498840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9178,7 +9209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138254592"/>
+        <c:crossAx val="746499232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9186,7 +9217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138254592"/>
+        <c:axId val="746499232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2500000"/>
@@ -9230,7 +9261,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9239,6 +9269,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -9268,13 +9315,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138253056"/>
+        <c:crossAx val="746498840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9387,7 +9433,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9448,7 +9494,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9457,6 +9502,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -10021,97 +10083,97 @@
                   <c:v>97524.909911630093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>98941.707737955338</c:v>
+                  <c:v>99192.793455582883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100358.50556428058</c:v>
+                  <c:v>100860.67699953567</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101775.30339060583</c:v>
+                  <c:v>102528.56054348846</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103192.10121693107</c:v>
+                  <c:v>104196.44408744125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>104608.89904325632</c:v>
+                  <c:v>105864.32763139404</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>106025.69686958156</c:v>
+                  <c:v>107532.21117534683</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107442.4946959068</c:v>
+                  <c:v>109200.09471929962</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>108859.29252223205</c:v>
+                  <c:v>110867.97826325241</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>110276.09034855729</c:v>
+                  <c:v>112535.8618072052</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111692.88817488254</c:v>
+                  <c:v>114203.745351158</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>113109.68600120778</c:v>
+                  <c:v>115871.62889511079</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>114526.48382753303</c:v>
+                  <c:v>117539.51243906358</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>115943.28165385827</c:v>
+                  <c:v>119207.39598301637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>117360.07948018351</c:v>
+                  <c:v>120875.27952696916</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>118776.87730650876</c:v>
+                  <c:v>122543.16307092195</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>120193.675132834</c:v>
+                  <c:v>124211.04661487474</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>121610.47295915925</c:v>
+                  <c:v>125878.93015882753</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>123027.27078548449</c:v>
+                  <c:v>127546.81370278032</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>124444.06861180974</c:v>
+                  <c:v>129214.69724673311</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>125860.86643813498</c:v>
+                  <c:v>130882.5807906859</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>127277.66426446023</c:v>
+                  <c:v>132550.4643346387</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>128694.46209078547</c:v>
+                  <c:v>134218.34787859151</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>130111.25991711071</c:v>
+                  <c:v>135886.23142254431</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>131528.05774343596</c:v>
+                  <c:v>137554.11496649712</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>132944.85556976119</c:v>
+                  <c:v>139221.99851044992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>134361.65339608642</c:v>
+                  <c:v>140889.88205440273</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>135778.45122241165</c:v>
+                  <c:v>142557.76559835553</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>137195.24904873688</c:v>
+                  <c:v>144225.64914230834</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>138612.04687506211</c:v>
+                  <c:v>145893.53268626114</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>140028.84470138734</c:v>
+                  <c:v>147561.41623021394</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>141445.64252771257</c:v>
+                  <c:v>149229.29977416675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12663,97 +12725,97 @@
                   <c:v>91867.908038127905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94924.128854917435</c:v>
+                  <c:v>94198.83547571348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97980.349671706965</c:v>
+                  <c:v>96529.762913299055</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101036.57048849649</c:v>
+                  <c:v>98860.69035088463</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>104092.79130528602</c:v>
+                  <c:v>101191.6177884702</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107149.01212207555</c:v>
+                  <c:v>103522.54522605578</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110205.23293886508</c:v>
+                  <c:v>105853.47266364135</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>113261.45375565461</c:v>
+                  <c:v>108184.40010122693</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>116317.67457244414</c:v>
+                  <c:v>110515.3275388125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>119373.89538923367</c:v>
+                  <c:v>112846.25497639808</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>122430.1162060232</c:v>
+                  <c:v>115177.18241398365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>125486.33702281273</c:v>
+                  <c:v>117508.10985156923</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>128542.55783960226</c:v>
+                  <c:v>119839.0372891548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>131598.77865639181</c:v>
+                  <c:v>122169.96472674038</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>134654.99947318135</c:v>
+                  <c:v>124500.89216432595</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>137711.22028997089</c:v>
+                  <c:v>126831.81960191153</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>140767.44110676044</c:v>
+                  <c:v>129162.7470394971</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>143823.66192354998</c:v>
+                  <c:v>131493.67447708268</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>146879.88274033953</c:v>
+                  <c:v>133824.60191466825</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>149936.10355712907</c:v>
+                  <c:v>136155.52935225383</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>152992.32437391861</c:v>
+                  <c:v>138486.4567898394</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>156048.54519070816</c:v>
+                  <c:v>140817.38422742498</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>159104.7660074977</c:v>
+                  <c:v>143148.31166501055</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>162160.98682428725</c:v>
+                  <c:v>145479.23910259613</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>165217.20764107679</c:v>
+                  <c:v>147810.1665401817</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>168273.42845786634</c:v>
+                  <c:v>150141.09397776728</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>171329.64927465588</c:v>
+                  <c:v>152472.02141535285</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>174385.87009144542</c:v>
+                  <c:v>154802.94885293843</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>177442.09090823497</c:v>
+                  <c:v>157133.876290524</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>180498.31172502451</c:v>
+                  <c:v>159464.80372810957</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>183554.53254181406</c:v>
+                  <c:v>161795.73116569515</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>186610.7533586036</c:v>
+                  <c:v>164126.65860328075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13658,97 +13720,97 @@
                   <c:v>112225.37531982426</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113167.79313889894</c:v>
+                  <c:v>114456.98361638653</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114110.21095797361</c:v>
+                  <c:v>116688.59191294879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115052.62877704829</c:v>
+                  <c:v>118920.20020951105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>115995.04659612296</c:v>
+                  <c:v>121151.80850607331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116937.46441519764</c:v>
+                  <c:v>123383.41680263558</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>117879.88223427231</c:v>
+                  <c:v>125615.02509919784</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>118822.30005334699</c:v>
+                  <c:v>127846.6333957601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>119764.71787242166</c:v>
+                  <c:v>130078.24169232236</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>120707.13569149634</c:v>
+                  <c:v>132309.84998888461</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>121649.55351057102</c:v>
+                  <c:v>134541.45828544686</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>122591.97132964569</c:v>
+                  <c:v>136773.06658200911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>123534.38914872037</c:v>
+                  <c:v>139004.67487857136</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>124476.80696779504</c:v>
+                  <c:v>141236.28317513361</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>125419.22478686972</c:v>
+                  <c:v>143467.89147169585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>126361.64260594439</c:v>
+                  <c:v>145699.4997682581</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>127304.06042501907</c:v>
+                  <c:v>147931.10806482035</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>128246.47824409374</c:v>
+                  <c:v>150162.7163613826</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>129188.89606316842</c:v>
+                  <c:v>152394.32465794485</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>130131.31388224309</c:v>
+                  <c:v>154625.93295450709</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>131073.73170131777</c:v>
+                  <c:v>156857.54125106934</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>132016.14952039244</c:v>
+                  <c:v>159089.14954763159</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>132958.56733946712</c:v>
+                  <c:v>161320.75784419384</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>133900.98515854179</c:v>
+                  <c:v>163552.36614075609</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>134843.40297761647</c:v>
+                  <c:v>165783.97443731833</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>135785.82079669114</c:v>
+                  <c:v>168015.58273388058</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>136728.23861576582</c:v>
+                  <c:v>170247.19103044283</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>137670.65643484049</c:v>
+                  <c:v>172478.79932700508</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>138613.07425391517</c:v>
+                  <c:v>174710.40762356733</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>139555.49207298984</c:v>
+                  <c:v>176942.01592012958</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>140497.90989206452</c:v>
+                  <c:v>179173.62421669182</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>141440.32771113919</c:v>
+                  <c:v>181405.23251325407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13990,97 +14052,97 @@
                   <c:v>146232.29306016408</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>152585.77392091753</c:v>
+                  <c:v>151488.9403382497</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>158939.25478167098</c:v>
+                  <c:v>156745.58761633531</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>165292.73564242444</c:v>
+                  <c:v>162002.23489442092</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>171646.21650317789</c:v>
+                  <c:v>167258.88217250654</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>177999.69736393134</c:v>
+                  <c:v>172515.52945059215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>184353.17822468479</c:v>
+                  <c:v>177772.17672867776</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>190706.65908543824</c:v>
+                  <c:v>183028.82400676337</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>197060.13994619169</c:v>
+                  <c:v>188285.47128484899</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>203413.62080694514</c:v>
+                  <c:v>193542.1185629346</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>209767.10166769859</c:v>
+                  <c:v>198798.76584102021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>216120.58252845204</c:v>
+                  <c:v>204055.41311910583</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>222474.06338920549</c:v>
+                  <c:v>209312.06039719144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>228827.54424995894</c:v>
+                  <c:v>214568.70767527705</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>235181.02511071239</c:v>
+                  <c:v>219825.35495336266</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>241534.50597146584</c:v>
+                  <c:v>225082.00223144828</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>247887.98683221929</c:v>
+                  <c:v>230338.64950953389</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>254241.46769297274</c:v>
+                  <c:v>235595.2967876195</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>260594.94855372619</c:v>
+                  <c:v>240851.94406570512</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>266948.42941447964</c:v>
+                  <c:v>246108.59134379073</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>273301.91027523309</c:v>
+                  <c:v>251365.23862187634</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>279655.39113598655</c:v>
+                  <c:v>256621.88589996196</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>286008.87199674</c:v>
+                  <c:v>261878.53317804757</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>292362.35285749345</c:v>
+                  <c:v>267135.18045613315</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>298715.8337182469</c:v>
+                  <c:v>272391.82773421874</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>305069.31457900035</c:v>
+                  <c:v>277648.47501230432</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>311422.7954397538</c:v>
+                  <c:v>282905.1222903899</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>317776.27630050725</c:v>
+                  <c:v>288161.76956847549</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>324129.7571612607</c:v>
+                  <c:v>293418.41684656107</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>330483.23802201415</c:v>
+                  <c:v>298675.06412464665</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>336836.7188827676</c:v>
+                  <c:v>303931.71140273224</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>343190.19974352105</c:v>
+                  <c:v>309188.35868081782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17965,97 +18027,97 @@
                   <c:v>88119.050892934785</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89403.878868814296</c:v>
+                  <c:v>89729.181398226414</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90688.706844693806</c:v>
+                  <c:v>91339.311903518043</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91973.534820573317</c:v>
+                  <c:v>92949.442408809671</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93258.362796452828</c:v>
+                  <c:v>94559.5729141013</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94543.190772332338</c:v>
+                  <c:v>96169.703419392928</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95828.018748211849</c:v>
+                  <c:v>97779.833924684557</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97112.84672409136</c:v>
+                  <c:v>99389.964429976186</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98397.67469997087</c:v>
+                  <c:v>101000.09493526781</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>99682.502675850381</c:v>
+                  <c:v>102610.22544055944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100967.33065172989</c:v>
+                  <c:v>104220.35594585107</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>102252.1586276094</c:v>
+                  <c:v>105830.4864511427</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>103536.98660348891</c:v>
+                  <c:v>107440.61695643433</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104821.81457936842</c:v>
+                  <c:v>109050.74746172596</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>106106.64255524793</c:v>
+                  <c:v>110660.87796701759</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>107391.47053112744</c:v>
+                  <c:v>112271.00847230921</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>108676.29850700696</c:v>
+                  <c:v>113881.13897760084</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>109961.12648288647</c:v>
+                  <c:v>115491.26948289247</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>111245.95445876598</c:v>
+                  <c:v>117101.3999881841</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>112530.78243464549</c:v>
+                  <c:v>118711.53049347573</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>113815.610410525</c:v>
+                  <c:v>120321.66099876736</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>115100.43838640451</c:v>
+                  <c:v>121931.79150405899</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>116385.26636228402</c:v>
+                  <c:v>123541.92200935062</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>117670.09433816353</c:v>
+                  <c:v>125152.05251464224</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>118954.92231404304</c:v>
+                  <c:v>126762.18301993387</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>120239.75028992255</c:v>
+                  <c:v>128372.3135252255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>121524.57826580206</c:v>
+                  <c:v>129982.44403051713</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>122809.40624168157</c:v>
+                  <c:v>131592.57453580876</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>124094.23421756108</c:v>
+                  <c:v>133202.70504110039</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>125379.06219344059</c:v>
+                  <c:v>134812.83554639202</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>126663.8901693201</c:v>
+                  <c:v>136422.96605168364</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>127948.71814519961</c:v>
+                  <c:v>138033.09655697527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18074,11 +18136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="139082368"/>
-        <c:axId val="139084160"/>
+        <c:axId val="736527424"/>
+        <c:axId val="736527816"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="139082368"/>
+        <c:axId val="736527424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18118,7 +18180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139084160"/>
+        <c:crossAx val="736527816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18126,7 +18188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139084160"/>
+        <c:axId val="736527816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3500000"/>
@@ -18170,7 +18232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18179,6 +18240,23 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -18208,13 +18286,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139082368"/>
+        <c:crossAx val="736527424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
           <c:builtInUnit val="thousands"/>
           <c:dispUnitsLbl>
-            <c:layout/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -23189,7 +23266,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -24028,9 +24105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24059,16 +24136,16 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="16">
         <f>AX4</f>
@@ -24402,14 +24479,14 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>88399.19999999991</v>
+        <v>93570</v>
       </c>
       <c r="D6" s="20">
         <v>53940</v>
@@ -24464,127 +24541,127 @@
       </c>
       <c r="T6" s="22">
         <f>SUM((S6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>60163.199999999997</v>
+        <v>60330</v>
       </c>
       <c r="U6" s="22">
         <f>SUM((T6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>61104.399999999994</v>
+        <v>61438</v>
       </c>
       <c r="V6" s="22">
         <f>SUM((U6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>62045.599999999991</v>
+        <v>62546</v>
       </c>
       <c r="W6" s="22">
         <f>SUM((V6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>62986.799999999988</v>
+        <v>63654</v>
       </c>
       <c r="X6" s="22">
         <f>SUM((W6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>63927.999999999985</v>
+        <v>64762</v>
       </c>
       <c r="Y6" s="22">
         <f>SUM((X6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>64869.199999999983</v>
+        <v>65870</v>
       </c>
       <c r="Z6" s="22">
         <f>SUM((Y6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>65810.39999999998</v>
+        <v>66978</v>
       </c>
       <c r="AA6" s="22">
         <f>SUM((Z6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>66751.599999999977</v>
+        <v>68086</v>
       </c>
       <c r="AB6" s="22">
         <f>SUM((AA6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>67692.799999999974</v>
+        <v>69194</v>
       </c>
       <c r="AC6" s="22">
         <f>SUM((AB6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>68633.999999999971</v>
+        <v>70302</v>
       </c>
       <c r="AD6" s="22">
         <f>SUM((AC6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>69575.199999999968</v>
+        <v>71410</v>
       </c>
       <c r="AE6" s="22">
         <f>SUM((AD6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>70516.399999999965</v>
+        <v>72518</v>
       </c>
       <c r="AF6" s="22">
         <f>SUM((AE6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>71457.599999999962</v>
+        <v>73626</v>
       </c>
       <c r="AG6" s="22">
         <f>SUM((AF6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>72398.799999999959</v>
+        <v>74734</v>
       </c>
       <c r="AH6" s="22">
         <f>SUM((AG6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>73339.999999999956</v>
+        <v>75842</v>
       </c>
       <c r="AI6" s="22">
         <f>SUM((AH6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>74281.199999999953</v>
+        <v>76950</v>
       </c>
       <c r="AJ6" s="22">
         <f>SUM((AI6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>75222.399999999951</v>
+        <v>78058</v>
       </c>
       <c r="AK6" s="22">
         <f>SUM((AJ6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>76163.599999999948</v>
+        <v>79166</v>
       </c>
       <c r="AL6" s="22">
         <f>SUM((AK6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>77104.799999999945</v>
+        <v>80274</v>
       </c>
       <c r="AM6" s="22">
         <f>SUM((AL6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>78045.999999999942</v>
+        <v>81382</v>
       </c>
       <c r="AN6" s="22">
         <f>SUM((AM6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>78987.199999999939</v>
+        <v>82490</v>
       </c>
       <c r="AO6" s="22">
         <f>SUM((AN6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>79928.399999999936</v>
+        <v>83598</v>
       </c>
       <c r="AP6" s="22">
         <f>SUM((AO6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>80869.599999999933</v>
+        <v>84706</v>
       </c>
       <c r="AQ6" s="22">
         <f>SUM((AP6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>81810.79999999993</v>
+        <v>85814</v>
       </c>
       <c r="AR6" s="22">
         <f>SUM((AQ6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>82751.999999999927</v>
+        <v>86922</v>
       </c>
       <c r="AS6" s="22">
         <f>SUM((AR6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>83693.199999999924</v>
+        <v>88030</v>
       </c>
       <c r="AT6" s="22">
         <f>SUM((AS6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>84634.399999999921</v>
+        <v>89138</v>
       </c>
       <c r="AU6" s="22">
         <f>SUM((AT6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>85575.599999999919</v>
+        <v>90246</v>
       </c>
       <c r="AV6" s="22">
         <f>SUM((AU6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>86516.799999999916</v>
+        <v>91354</v>
       </c>
       <c r="AW6" s="22">
         <f>SUM((AV6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>87457.999999999913</v>
+        <v>92462</v>
       </c>
       <c r="AX6" s="22">
         <f>SUM((AW6+'Baseline data'!$C5)+($A6*$C$2))</f>
-        <v>88399.19999999991</v>
+        <v>93570</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
@@ -25877,14 +25954,14 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="19">
         <f t="shared" si="0"/>
-        <v>150336</v>
+        <v>132238.19999999992</v>
       </c>
       <c r="D14" s="20">
         <v>61100</v>
@@ -25939,127 +26016,127 @@
       </c>
       <c r="T14" s="22">
         <f>SUM((S14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>76536</v>
+        <v>75952.2</v>
       </c>
       <c r="U14" s="22">
         <f>SUM((T14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>78996</v>
+        <v>77828.399999999994</v>
       </c>
       <c r="V14" s="22">
         <f>SUM((U14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>81456</v>
+        <v>79704.599999999991</v>
       </c>
       <c r="W14" s="22">
         <f>SUM((V14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>83916</v>
+        <v>81580.799999999988</v>
       </c>
       <c r="X14" s="22">
         <f>SUM((W14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>86376</v>
+        <v>83456.999999999985</v>
       </c>
       <c r="Y14" s="22">
         <f>SUM((X14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>88836</v>
+        <v>85333.199999999983</v>
       </c>
       <c r="Z14" s="22">
         <f>SUM((Y14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>91296</v>
+        <v>87209.39999999998</v>
       </c>
       <c r="AA14" s="22">
         <f>SUM((Z14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>93756</v>
+        <v>89085.599999999977</v>
       </c>
       <c r="AB14" s="22">
         <f>SUM((AA14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>96216</v>
+        <v>90961.799999999974</v>
       </c>
       <c r="AC14" s="22">
         <f>SUM((AB14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>98676</v>
+        <v>92837.999999999971</v>
       </c>
       <c r="AD14" s="22">
         <f>SUM((AC14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>101136</v>
+        <v>94714.199999999968</v>
       </c>
       <c r="AE14" s="22">
         <f>SUM((AD14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>103596</v>
+        <v>96590.399999999965</v>
       </c>
       <c r="AF14" s="22">
         <f>SUM((AE14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>106056</v>
+        <v>98466.599999999962</v>
       </c>
       <c r="AG14" s="22">
         <f>SUM((AF14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>108516</v>
+        <v>100342.79999999996</v>
       </c>
       <c r="AH14" s="22">
         <f>SUM((AG14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>110976</v>
+        <v>102218.99999999996</v>
       </c>
       <c r="AI14" s="22">
         <f>SUM((AH14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>113436</v>
+        <v>104095.19999999995</v>
       </c>
       <c r="AJ14" s="22">
         <f>SUM((AI14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>115896</v>
+        <v>105971.39999999995</v>
       </c>
       <c r="AK14" s="22">
         <f>SUM((AJ14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>118356</v>
+        <v>107847.59999999995</v>
       </c>
       <c r="AL14" s="22">
         <f>SUM((AK14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>120816</v>
+        <v>109723.79999999994</v>
       </c>
       <c r="AM14" s="22">
         <f>SUM((AL14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>123276</v>
+        <v>111599.99999999994</v>
       </c>
       <c r="AN14" s="22">
         <f>SUM((AM14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>125736</v>
+        <v>113476.19999999994</v>
       </c>
       <c r="AO14" s="22">
         <f>SUM((AN14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>128196</v>
+        <v>115352.39999999994</v>
       </c>
       <c r="AP14" s="22">
         <f>SUM((AO14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>130656</v>
+        <v>117228.59999999993</v>
       </c>
       <c r="AQ14" s="22">
         <f>SUM((AP14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>133116</v>
+        <v>119104.79999999993</v>
       </c>
       <c r="AR14" s="22">
         <f>SUM((AQ14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>135576</v>
+        <v>120980.99999999993</v>
       </c>
       <c r="AS14" s="22">
         <f>SUM((AR14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>138036</v>
+        <v>122857.19999999992</v>
       </c>
       <c r="AT14" s="22">
         <f>SUM((AS14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>140496</v>
+        <v>124733.39999999992</v>
       </c>
       <c r="AU14" s="22">
         <f>SUM((AT14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>142956</v>
+        <v>126609.59999999992</v>
       </c>
       <c r="AV14" s="22">
         <f>SUM((AU14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>145416</v>
+        <v>128485.79999999992</v>
       </c>
       <c r="AW14" s="22">
         <f>SUM((AV14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>147876</v>
+        <v>130361.99999999991</v>
       </c>
       <c r="AX14" s="22">
         <f>SUM((AW14+'Baseline data'!$C13)+($A14*$C$2))</f>
-        <v>150336</v>
+        <v>132238.19999999992</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
@@ -26432,14 +26509,14 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="19">
         <f t="shared" si="0"/>
-        <v>101603.60000000018</v>
+        <v>132628.39999999982</v>
       </c>
       <c r="D17" s="26">
         <v>73050</v>
@@ -26494,139 +26571,139 @@
       </c>
       <c r="T17" s="22">
         <f>SUM((S17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>79655.600000000006</v>
+        <v>80656.399999999994</v>
       </c>
       <c r="U17" s="22">
         <f>SUM((T17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>80387.200000000012</v>
+        <v>82388.799999999988</v>
       </c>
       <c r="V17" s="22">
         <f>SUM((U17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>81118.800000000017</v>
+        <v>84121.199999999983</v>
       </c>
       <c r="W17" s="22">
         <f>SUM((V17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>81850.400000000023</v>
+        <v>85853.599999999977</v>
       </c>
       <c r="X17" s="22">
         <f>SUM((W17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>82582.000000000029</v>
+        <v>87585.999999999971</v>
       </c>
       <c r="Y17" s="22">
         <f>SUM((X17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>83313.600000000035</v>
+        <v>89318.399999999965</v>
       </c>
       <c r="Z17" s="22">
         <f>SUM((Y17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>84045.200000000041</v>
+        <v>91050.799999999959</v>
       </c>
       <c r="AA17" s="22">
         <f>SUM((Z17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>84776.800000000047</v>
+        <v>92783.199999999953</v>
       </c>
       <c r="AB17" s="22">
         <f>SUM((AA17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>85508.400000000052</v>
+        <v>94515.599999999948</v>
       </c>
       <c r="AC17" s="22">
         <f>SUM((AB17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>86240.000000000058</v>
+        <v>96247.999999999942</v>
       </c>
       <c r="AD17" s="22">
         <f>SUM((AC17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>86971.600000000064</v>
+        <v>97980.399999999936</v>
       </c>
       <c r="AE17" s="22">
         <f>SUM((AD17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>87703.20000000007</v>
+        <v>99712.79999999993</v>
       </c>
       <c r="AF17" s="22">
         <f>SUM((AE17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>88434.800000000076</v>
+        <v>101445.19999999992</v>
       </c>
       <c r="AG17" s="22">
         <f>SUM((AF17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>89166.400000000081</v>
+        <v>103177.59999999992</v>
       </c>
       <c r="AH17" s="22">
         <f>SUM((AG17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>89898.000000000087</v>
+        <v>104909.99999999991</v>
       </c>
       <c r="AI17" s="22">
         <f>SUM((AH17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>90629.600000000093</v>
+        <v>106642.39999999991</v>
       </c>
       <c r="AJ17" s="22">
         <f>SUM((AI17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>91361.200000000099</v>
+        <v>108374.7999999999</v>
       </c>
       <c r="AK17" s="22">
         <f>SUM((AJ17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>92092.800000000105</v>
+        <v>110107.1999999999</v>
       </c>
       <c r="AL17" s="22">
         <f>SUM((AK17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>92824.400000000111</v>
+        <v>111839.59999999989</v>
       </c>
       <c r="AM17" s="22">
         <f>SUM((AL17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>93556.000000000116</v>
+        <v>113571.99999999988</v>
       </c>
       <c r="AN17" s="22">
         <f>SUM((AM17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>94287.600000000122</v>
+        <v>115304.39999999988</v>
       </c>
       <c r="AO17" s="22">
         <f>SUM((AN17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>95019.200000000128</v>
+        <v>117036.79999999987</v>
       </c>
       <c r="AP17" s="22">
         <f>SUM((AO17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>95750.800000000134</v>
+        <v>118769.19999999987</v>
       </c>
       <c r="AQ17" s="22">
         <f>SUM((AP17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>96482.40000000014</v>
+        <v>120501.59999999986</v>
       </c>
       <c r="AR17" s="22">
         <f>SUM((AQ17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>97214.000000000146</v>
+        <v>122233.99999999985</v>
       </c>
       <c r="AS17" s="22">
         <f>SUM((AR17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>97945.600000000151</v>
+        <v>123966.39999999985</v>
       </c>
       <c r="AT17" s="22">
         <f>SUM((AS17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>98677.200000000157</v>
+        <v>125698.79999999984</v>
       </c>
       <c r="AU17" s="22">
         <f>SUM((AT17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>99408.800000000163</v>
+        <v>127431.19999999984</v>
       </c>
       <c r="AV17" s="22">
         <f>SUM((AU17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>100140.40000000017</v>
+        <v>129163.59999999983</v>
       </c>
       <c r="AW17" s="22">
         <f>SUM((AV17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>100872.00000000017</v>
+        <v>130895.99999999983</v>
       </c>
       <c r="AX17" s="22">
         <f>SUM((AW17+'Baseline data'!$C16)+($A17*$C$2))</f>
-        <v>101603.60000000018</v>
+        <v>132628.39999999982</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="19">
         <f t="shared" si="0"/>
-        <v>262986</v>
+        <v>237132</v>
       </c>
       <c r="D18" s="26">
         <v>90090</v>
@@ -26681,127 +26758,127 @@
       </c>
       <c r="T18" s="22">
         <f>SUM((S18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>118056</v>
+        <v>117222</v>
       </c>
       <c r="U18" s="22">
         <f>SUM((T18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>122887</v>
+        <v>121219</v>
       </c>
       <c r="V18" s="22">
         <f>SUM((U18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>127718</v>
+        <v>125216</v>
       </c>
       <c r="W18" s="22">
         <f>SUM((V18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>132549</v>
+        <v>129213</v>
       </c>
       <c r="X18" s="22">
         <f>SUM((W18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>137380</v>
+        <v>133210</v>
       </c>
       <c r="Y18" s="22">
         <f>SUM((X18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>142211</v>
+        <v>137207</v>
       </c>
       <c r="Z18" s="22">
         <f>SUM((Y18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>147042</v>
+        <v>141204</v>
       </c>
       <c r="AA18" s="22">
         <f>SUM((Z18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>151873</v>
+        <v>145201</v>
       </c>
       <c r="AB18" s="22">
         <f>SUM((AA18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>156704</v>
+        <v>149198</v>
       </c>
       <c r="AC18" s="22">
         <f>SUM((AB18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>161535</v>
+        <v>153195</v>
       </c>
       <c r="AD18" s="22">
         <f>SUM((AC18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>166366</v>
+        <v>157192</v>
       </c>
       <c r="AE18" s="22">
         <f>SUM((AD18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>171197</v>
+        <v>161189</v>
       </c>
       <c r="AF18" s="22">
         <f>SUM((AE18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>176028</v>
+        <v>165186</v>
       </c>
       <c r="AG18" s="22">
         <f>SUM((AF18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>180859</v>
+        <v>169183</v>
       </c>
       <c r="AH18" s="22">
         <f>SUM((AG18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>185690</v>
+        <v>173180</v>
       </c>
       <c r="AI18" s="22">
         <f>SUM((AH18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>190521</v>
+        <v>177177</v>
       </c>
       <c r="AJ18" s="22">
         <f>SUM((AI18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>195352</v>
+        <v>181174</v>
       </c>
       <c r="AK18" s="22">
         <f>SUM((AJ18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>200183</v>
+        <v>185171</v>
       </c>
       <c r="AL18" s="22">
         <f>SUM((AK18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>205014</v>
+        <v>189168</v>
       </c>
       <c r="AM18" s="22">
         <f>SUM((AL18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>209845</v>
+        <v>193165</v>
       </c>
       <c r="AN18" s="22">
         <f>SUM((AM18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>214676</v>
+        <v>197162</v>
       </c>
       <c r="AO18" s="22">
         <f>SUM((AN18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>219507</v>
+        <v>201159</v>
       </c>
       <c r="AP18" s="22">
         <f>SUM((AO18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>224338</v>
+        <v>205156</v>
       </c>
       <c r="AQ18" s="22">
         <f>SUM((AP18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>229169</v>
+        <v>209153</v>
       </c>
       <c r="AR18" s="22">
         <f>SUM((AQ18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>234000</v>
+        <v>213150</v>
       </c>
       <c r="AS18" s="22">
         <f>SUM((AR18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>238831</v>
+        <v>217147</v>
       </c>
       <c r="AT18" s="22">
         <f>SUM((AS18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>243662</v>
+        <v>221144</v>
       </c>
       <c r="AU18" s="22">
         <f>SUM((AT18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>248493</v>
+        <v>225141</v>
       </c>
       <c r="AV18" s="22">
         <f>SUM((AU18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>253324</v>
+        <v>229138</v>
       </c>
       <c r="AW18" s="22">
         <f>SUM((AV18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>258155</v>
+        <v>233135</v>
       </c>
       <c r="AX18" s="22">
         <f>SUM((AW18+'Baseline data'!$C17)+($A18*$C$2))</f>
-        <v>262986</v>
+        <v>237132</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
@@ -28839,14 +28916,14 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="19">
         <f t="shared" si="0"/>
-        <v>98028.19999999991</v>
+        <v>105784.39999999982</v>
       </c>
       <c r="D30" s="20">
         <v>55830</v>
@@ -28901,127 +28978,127 @@
       </c>
       <c r="T30" s="22">
         <f>SUM((S30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>68382.2</v>
+        <v>68632.399999999994</v>
       </c>
       <c r="U30" s="22">
         <f>SUM((T30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>69370.399999999994</v>
+        <v>69870.799999999988</v>
       </c>
       <c r="V30" s="22">
         <f>SUM((U30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>70358.599999999991</v>
+        <v>71109.199999999983</v>
       </c>
       <c r="W30" s="22">
         <f>SUM((V30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>71346.799999999988</v>
+        <v>72347.599999999977</v>
       </c>
       <c r="X30" s="22">
         <f>SUM((W30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>72334.999999999985</v>
+        <v>73585.999999999971</v>
       </c>
       <c r="Y30" s="22">
         <f>SUM((X30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>73323.199999999983</v>
+        <v>74824.399999999965</v>
       </c>
       <c r="Z30" s="22">
         <f>SUM((Y30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>74311.39999999998</v>
+        <v>76062.799999999959</v>
       </c>
       <c r="AA30" s="22">
         <f>SUM((Z30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>75299.599999999977</v>
+        <v>77301.199999999953</v>
       </c>
       <c r="AB30" s="22">
         <f>SUM((AA30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>76287.799999999974</v>
+        <v>78539.599999999948</v>
       </c>
       <c r="AC30" s="22">
         <f>SUM((AB30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>77275.999999999971</v>
+        <v>79777.999999999942</v>
       </c>
       <c r="AD30" s="22">
         <f>SUM((AC30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>78264.199999999968</v>
+        <v>81016.399999999936</v>
       </c>
       <c r="AE30" s="22">
         <f>SUM((AD30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>79252.399999999965</v>
+        <v>82254.79999999993</v>
       </c>
       <c r="AF30" s="22">
         <f>SUM((AE30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>80240.599999999962</v>
+        <v>83493.199999999924</v>
       </c>
       <c r="AG30" s="22">
         <f>SUM((AF30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>81228.799999999959</v>
+        <v>84731.599999999919</v>
       </c>
       <c r="AH30" s="22">
         <f>SUM((AG30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>82216.999999999956</v>
+        <v>85969.999999999913</v>
       </c>
       <c r="AI30" s="22">
         <f>SUM((AH30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>83205.199999999953</v>
+        <v>87208.399999999907</v>
       </c>
       <c r="AJ30" s="22">
         <f>SUM((AI30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>84193.399999999951</v>
+        <v>88446.799999999901</v>
       </c>
       <c r="AK30" s="22">
         <f>SUM((AJ30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>85181.599999999948</v>
+        <v>89685.199999999895</v>
       </c>
       <c r="AL30" s="22">
         <f>SUM((AK30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>86169.799999999945</v>
+        <v>90923.599999999889</v>
       </c>
       <c r="AM30" s="22">
         <f>SUM((AL30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>87157.999999999942</v>
+        <v>92161.999999999884</v>
       </c>
       <c r="AN30" s="22">
         <f>SUM((AM30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>88146.199999999939</v>
+        <v>93400.399999999878</v>
       </c>
       <c r="AO30" s="22">
         <f>SUM((AN30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>89134.399999999936</v>
+        <v>94638.799999999872</v>
       </c>
       <c r="AP30" s="22">
         <f>SUM((AO30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>90122.599999999933</v>
+        <v>95877.199999999866</v>
       </c>
       <c r="AQ30" s="22">
         <f>SUM((AP30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>91110.79999999993</v>
+        <v>97115.59999999986</v>
       </c>
       <c r="AR30" s="22">
         <f>SUM((AQ30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>92098.999999999927</v>
+        <v>98353.999999999854</v>
       </c>
       <c r="AS30" s="22">
         <f>SUM((AR30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>93087.199999999924</v>
+        <v>99592.399999999849</v>
       </c>
       <c r="AT30" s="22">
         <f>SUM((AS30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>94075.399999999921</v>
+        <v>100830.79999999984</v>
       </c>
       <c r="AU30" s="22">
         <f>SUM((AT30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>95063.599999999919</v>
+        <v>102069.19999999984</v>
       </c>
       <c r="AV30" s="22">
         <f>SUM((AU30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>96051.799999999916</v>
+        <v>103307.59999999983</v>
       </c>
       <c r="AW30" s="22">
         <f>SUM((AV30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>97039.999999999913</v>
+        <v>104545.99999999983</v>
       </c>
       <c r="AX30" s="22">
         <f>SUM((AW30+'Baseline data'!$C29)+($A30*$C$2))</f>
-        <v>98028.19999999991</v>
+        <v>105784.39999999982</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
@@ -29038,7 +29115,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="19">
         <f t="shared" si="0"/>
@@ -29110,7 +29187,7 @@
       </c>
       <c r="T32" s="22">
         <f t="shared" si="2"/>
-        <v>1604649.9999999998</v>
+        <v>1604650</v>
       </c>
       <c r="U32" s="22">
         <f t="shared" si="2"/>
@@ -29118,11 +29195,11 @@
       </c>
       <c r="V32" s="22">
         <f t="shared" si="2"/>
-        <v>1650650</v>
+        <v>1650649.9999999998</v>
       </c>
       <c r="W32" s="22">
         <f t="shared" si="2"/>
-        <v>1673650.0000000002</v>
+        <v>1673650</v>
       </c>
       <c r="X32" s="22">
         <f t="shared" si="2"/>
@@ -29130,7 +29207,7 @@
       </c>
       <c r="Y32" s="22">
         <f t="shared" si="2"/>
-        <v>1719650</v>
+        <v>1719649.9999999998</v>
       </c>
       <c r="Z32" s="22">
         <f t="shared" ref="Z32:AX32" si="3">SUM(Z5:Z30)</f>
@@ -29138,11 +29215,11 @@
       </c>
       <c r="AA32" s="22">
         <f t="shared" si="3"/>
-        <v>1765650</v>
+        <v>1765649.9999999998</v>
       </c>
       <c r="AB32" s="22">
         <f t="shared" si="3"/>
-        <v>1788650.0000000002</v>
+        <v>1788649.9999999998</v>
       </c>
       <c r="AC32" s="22">
         <f t="shared" si="3"/>
@@ -29150,11 +29227,11 @@
       </c>
       <c r="AD32" s="22">
         <f t="shared" si="3"/>
-        <v>1834650</v>
+        <v>1834649.9999999998</v>
       </c>
       <c r="AE32" s="22">
         <f t="shared" si="3"/>
-        <v>1857650</v>
+        <v>1857649.9999999995</v>
       </c>
       <c r="AF32" s="22">
         <f t="shared" si="3"/>
@@ -29162,7 +29239,7 @@
       </c>
       <c r="AG32" s="22">
         <f t="shared" si="3"/>
-        <v>1903650</v>
+        <v>1903649.9999999998</v>
       </c>
       <c r="AH32" s="22">
         <f t="shared" si="3"/>
@@ -29170,19 +29247,19 @@
       </c>
       <c r="AI32" s="22">
         <f t="shared" si="3"/>
-        <v>1949650</v>
+        <v>1949649.9999999998</v>
       </c>
       <c r="AJ32" s="22">
         <f t="shared" si="3"/>
-        <v>1972650</v>
+        <v>1972649.9999999995</v>
       </c>
       <c r="AK32" s="22">
         <f t="shared" si="3"/>
-        <v>1995650</v>
+        <v>1995649.9999999998</v>
       </c>
       <c r="AL32" s="22">
         <f t="shared" si="3"/>
-        <v>2018650.0000000002</v>
+        <v>2018649.9999999998</v>
       </c>
       <c r="AM32" s="22">
         <f t="shared" si="3"/>
@@ -29190,15 +29267,15 @@
       </c>
       <c r="AN32" s="22">
         <f t="shared" si="3"/>
-        <v>2064650</v>
+        <v>2064649.9999999998</v>
       </c>
       <c r="AO32" s="22">
         <f t="shared" si="3"/>
-        <v>2087650</v>
+        <v>2087649.9999999995</v>
       </c>
       <c r="AP32" s="22">
         <f t="shared" si="3"/>
-        <v>2110650</v>
+        <v>2110649.9999999995</v>
       </c>
       <c r="AQ32" s="22">
         <f t="shared" si="3"/>
@@ -29206,23 +29283,23 @@
       </c>
       <c r="AR32" s="22">
         <f t="shared" si="3"/>
-        <v>2156650</v>
+        <v>2156649.9999999995</v>
       </c>
       <c r="AS32" s="22">
         <f t="shared" si="3"/>
-        <v>2179650</v>
+        <v>2179649.9999999995</v>
       </c>
       <c r="AT32" s="22">
         <f t="shared" si="3"/>
-        <v>2202650</v>
+        <v>2202649.9999999995</v>
       </c>
       <c r="AU32" s="22">
         <f t="shared" si="3"/>
-        <v>2225650</v>
+        <v>2225649.9999999995</v>
       </c>
       <c r="AV32" s="22">
         <f t="shared" si="3"/>
-        <v>2248650</v>
+        <v>2248649.9999999991</v>
       </c>
       <c r="AW32" s="22">
         <f t="shared" si="3"/>
@@ -29252,7 +29329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -29271,12 +29348,12 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="17">
         <v>2004</v>
@@ -29615,7 +29692,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="20">
         <f>'Projection Expansion'!D6</f>
@@ -29683,127 +29760,127 @@
       </c>
       <c r="R6" s="20">
         <f>'Projection Expansion'!T6</f>
-        <v>60163.199999999997</v>
+        <v>60330</v>
       </c>
       <c r="S6" s="20">
         <f>'Projection Expansion'!U6</f>
-        <v>61104.399999999994</v>
+        <v>61438</v>
       </c>
       <c r="T6" s="20">
         <f>'Projection Expansion'!V6</f>
-        <v>62045.599999999991</v>
+        <v>62546</v>
       </c>
       <c r="U6" s="20">
         <f>'Projection Expansion'!W6</f>
-        <v>62986.799999999988</v>
+        <v>63654</v>
       </c>
       <c r="V6" s="20">
         <f>'Projection Expansion'!X6</f>
-        <v>63927.999999999985</v>
+        <v>64762</v>
       </c>
       <c r="W6" s="20">
         <f>'Projection Expansion'!Y6</f>
-        <v>64869.199999999983</v>
+        <v>65870</v>
       </c>
       <c r="X6" s="20">
         <f>'Projection Expansion'!Z6</f>
-        <v>65810.39999999998</v>
+        <v>66978</v>
       </c>
       <c r="Y6" s="20">
         <f>'Projection Expansion'!AA6</f>
-        <v>66751.599999999977</v>
+        <v>68086</v>
       </c>
       <c r="Z6" s="20">
         <f>'Projection Expansion'!AB6</f>
-        <v>67692.799999999974</v>
+        <v>69194</v>
       </c>
       <c r="AA6" s="20">
         <f>'Projection Expansion'!AC6</f>
-        <v>68633.999999999971</v>
+        <v>70302</v>
       </c>
       <c r="AB6" s="20">
         <f>'Projection Expansion'!AD6</f>
-        <v>69575.199999999968</v>
+        <v>71410</v>
       </c>
       <c r="AC6" s="20">
         <f>'Projection Expansion'!AE6</f>
-        <v>70516.399999999965</v>
+        <v>72518</v>
       </c>
       <c r="AD6" s="20">
         <f>'Projection Expansion'!AF6</f>
-        <v>71457.599999999962</v>
+        <v>73626</v>
       </c>
       <c r="AE6" s="20">
         <f>'Projection Expansion'!AG6</f>
-        <v>72398.799999999959</v>
+        <v>74734</v>
       </c>
       <c r="AF6" s="20">
         <f>'Projection Expansion'!AH6</f>
-        <v>73339.999999999956</v>
+        <v>75842</v>
       </c>
       <c r="AG6" s="20">
         <f>'Projection Expansion'!AI6</f>
-        <v>74281.199999999953</v>
+        <v>76950</v>
       </c>
       <c r="AH6" s="20">
         <f>'Projection Expansion'!AJ6</f>
-        <v>75222.399999999951</v>
+        <v>78058</v>
       </c>
       <c r="AI6" s="20">
         <f>'Projection Expansion'!AK6</f>
-        <v>76163.599999999948</v>
+        <v>79166</v>
       </c>
       <c r="AJ6" s="20">
         <f>'Projection Expansion'!AL6</f>
-        <v>77104.799999999945</v>
+        <v>80274</v>
       </c>
       <c r="AK6" s="20">
         <f>'Projection Expansion'!AM6</f>
-        <v>78045.999999999942</v>
+        <v>81382</v>
       </c>
       <c r="AL6" s="20">
         <f>'Projection Expansion'!AN6</f>
-        <v>78987.199999999939</v>
+        <v>82490</v>
       </c>
       <c r="AM6" s="20">
         <f>'Projection Expansion'!AO6</f>
-        <v>79928.399999999936</v>
+        <v>83598</v>
       </c>
       <c r="AN6" s="20">
         <f>'Projection Expansion'!AP6</f>
-        <v>80869.599999999933</v>
+        <v>84706</v>
       </c>
       <c r="AO6" s="20">
         <f>'Projection Expansion'!AQ6</f>
-        <v>81810.79999999993</v>
+        <v>85814</v>
       </c>
       <c r="AP6" s="20">
         <f>'Projection Expansion'!AR6</f>
-        <v>82751.999999999927</v>
+        <v>86922</v>
       </c>
       <c r="AQ6" s="20">
         <f>'Projection Expansion'!AS6</f>
-        <v>83693.199999999924</v>
+        <v>88030</v>
       </c>
       <c r="AR6" s="20">
         <f>'Projection Expansion'!AT6</f>
-        <v>84634.399999999921</v>
+        <v>89138</v>
       </c>
       <c r="AS6" s="20">
         <f>'Projection Expansion'!AU6</f>
-        <v>85575.599999999919</v>
+        <v>90246</v>
       </c>
       <c r="AT6" s="20">
         <f>'Projection Expansion'!AV6</f>
-        <v>86516.799999999916</v>
+        <v>91354</v>
       </c>
       <c r="AU6" s="20">
         <f>'Projection Expansion'!AW6</f>
-        <v>87457.999999999913</v>
+        <v>92462</v>
       </c>
       <c r="AV6" s="20">
         <f>'Projection Expansion'!AX6</f>
-        <v>88399.19999999991</v>
+        <v>93570</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
@@ -31227,127 +31304,127 @@
       </c>
       <c r="R14" s="20">
         <f>'Projection Expansion'!T14</f>
-        <v>76536</v>
+        <v>75952.2</v>
       </c>
       <c r="S14" s="20">
         <f>'Projection Expansion'!U14</f>
-        <v>78996</v>
+        <v>77828.399999999994</v>
       </c>
       <c r="T14" s="20">
         <f>'Projection Expansion'!V14</f>
-        <v>81456</v>
+        <v>79704.599999999991</v>
       </c>
       <c r="U14" s="20">
         <f>'Projection Expansion'!W14</f>
-        <v>83916</v>
+        <v>81580.799999999988</v>
       </c>
       <c r="V14" s="20">
         <f>'Projection Expansion'!X14</f>
-        <v>86376</v>
+        <v>83456.999999999985</v>
       </c>
       <c r="W14" s="20">
         <f>'Projection Expansion'!Y14</f>
-        <v>88836</v>
+        <v>85333.199999999983</v>
       </c>
       <c r="X14" s="20">
         <f>'Projection Expansion'!Z14</f>
-        <v>91296</v>
+        <v>87209.39999999998</v>
       </c>
       <c r="Y14" s="20">
         <f>'Projection Expansion'!AA14</f>
-        <v>93756</v>
+        <v>89085.599999999977</v>
       </c>
       <c r="Z14" s="20">
         <f>'Projection Expansion'!AB14</f>
-        <v>96216</v>
+        <v>90961.799999999974</v>
       </c>
       <c r="AA14" s="20">
         <f>'Projection Expansion'!AC14</f>
-        <v>98676</v>
+        <v>92837.999999999971</v>
       </c>
       <c r="AB14" s="20">
         <f>'Projection Expansion'!AD14</f>
-        <v>101136</v>
+        <v>94714.199999999968</v>
       </c>
       <c r="AC14" s="20">
         <f>'Projection Expansion'!AE14</f>
-        <v>103596</v>
+        <v>96590.399999999965</v>
       </c>
       <c r="AD14" s="20">
         <f>'Projection Expansion'!AF14</f>
-        <v>106056</v>
+        <v>98466.599999999962</v>
       </c>
       <c r="AE14" s="20">
         <f>'Projection Expansion'!AG14</f>
-        <v>108516</v>
+        <v>100342.79999999996</v>
       </c>
       <c r="AF14" s="20">
         <f>'Projection Expansion'!AH14</f>
-        <v>110976</v>
+        <v>102218.99999999996</v>
       </c>
       <c r="AG14" s="20">
         <f>'Projection Expansion'!AI14</f>
-        <v>113436</v>
+        <v>104095.19999999995</v>
       </c>
       <c r="AH14" s="20">
         <f>'Projection Expansion'!AJ14</f>
-        <v>115896</v>
+        <v>105971.39999999995</v>
       </c>
       <c r="AI14" s="20">
         <f>'Projection Expansion'!AK14</f>
-        <v>118356</v>
+        <v>107847.59999999995</v>
       </c>
       <c r="AJ14" s="20">
         <f>'Projection Expansion'!AL14</f>
-        <v>120816</v>
+        <v>109723.79999999994</v>
       </c>
       <c r="AK14" s="20">
         <f>'Projection Expansion'!AM14</f>
-        <v>123276</v>
+        <v>111599.99999999994</v>
       </c>
       <c r="AL14" s="20">
         <f>'Projection Expansion'!AN14</f>
-        <v>125736</v>
+        <v>113476.19999999994</v>
       </c>
       <c r="AM14" s="20">
         <f>'Projection Expansion'!AO14</f>
-        <v>128196</v>
+        <v>115352.39999999994</v>
       </c>
       <c r="AN14" s="20">
         <f>'Projection Expansion'!AP14</f>
-        <v>130656</v>
+        <v>117228.59999999993</v>
       </c>
       <c r="AO14" s="20">
         <f>'Projection Expansion'!AQ14</f>
-        <v>133116</v>
+        <v>119104.79999999993</v>
       </c>
       <c r="AP14" s="20">
         <f>'Projection Expansion'!AR14</f>
-        <v>135576</v>
+        <v>120980.99999999993</v>
       </c>
       <c r="AQ14" s="20">
         <f>'Projection Expansion'!AS14</f>
-        <v>138036</v>
+        <v>122857.19999999992</v>
       </c>
       <c r="AR14" s="20">
         <f>'Projection Expansion'!AT14</f>
-        <v>140496</v>
+        <v>124733.39999999992</v>
       </c>
       <c r="AS14" s="20">
         <f>'Projection Expansion'!AU14</f>
-        <v>142956</v>
+        <v>126609.59999999992</v>
       </c>
       <c r="AT14" s="20">
         <f>'Projection Expansion'!AV14</f>
-        <v>145416</v>
+        <v>128485.79999999992</v>
       </c>
       <c r="AU14" s="20">
         <f>'Projection Expansion'!AW14</f>
-        <v>147876</v>
+        <v>130361.99999999991</v>
       </c>
       <c r="AV14" s="20">
         <f>'Projection Expansion'!AX14</f>
-        <v>150336</v>
+        <v>132238.19999999992</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.2">
@@ -31806,127 +31883,127 @@
       </c>
       <c r="R17" s="20">
         <f>'Projection Expansion'!T17</f>
-        <v>79655.600000000006</v>
+        <v>80656.399999999994</v>
       </c>
       <c r="S17" s="20">
         <f>'Projection Expansion'!U17</f>
-        <v>80387.200000000012</v>
+        <v>82388.799999999988</v>
       </c>
       <c r="T17" s="20">
         <f>'Projection Expansion'!V17</f>
-        <v>81118.800000000017</v>
+        <v>84121.199999999983</v>
       </c>
       <c r="U17" s="20">
         <f>'Projection Expansion'!W17</f>
-        <v>81850.400000000023</v>
+        <v>85853.599999999977</v>
       </c>
       <c r="V17" s="20">
         <f>'Projection Expansion'!X17</f>
-        <v>82582.000000000029</v>
+        <v>87585.999999999971</v>
       </c>
       <c r="W17" s="20">
         <f>'Projection Expansion'!Y17</f>
-        <v>83313.600000000035</v>
+        <v>89318.399999999965</v>
       </c>
       <c r="X17" s="20">
         <f>'Projection Expansion'!Z17</f>
-        <v>84045.200000000041</v>
+        <v>91050.799999999959</v>
       </c>
       <c r="Y17" s="20">
         <f>'Projection Expansion'!AA17</f>
-        <v>84776.800000000047</v>
+        <v>92783.199999999953</v>
       </c>
       <c r="Z17" s="20">
         <f>'Projection Expansion'!AB17</f>
-        <v>85508.400000000052</v>
+        <v>94515.599999999948</v>
       </c>
       <c r="AA17" s="20">
         <f>'Projection Expansion'!AC17</f>
-        <v>86240.000000000058</v>
+        <v>96247.999999999942</v>
       </c>
       <c r="AB17" s="20">
         <f>'Projection Expansion'!AD17</f>
-        <v>86971.600000000064</v>
+        <v>97980.399999999936</v>
       </c>
       <c r="AC17" s="20">
         <f>'Projection Expansion'!AE17</f>
-        <v>87703.20000000007</v>
+        <v>99712.79999999993</v>
       </c>
       <c r="AD17" s="20">
         <f>'Projection Expansion'!AF17</f>
-        <v>88434.800000000076</v>
+        <v>101445.19999999992</v>
       </c>
       <c r="AE17" s="20">
         <f>'Projection Expansion'!AG17</f>
-        <v>89166.400000000081</v>
+        <v>103177.59999999992</v>
       </c>
       <c r="AF17" s="20">
         <f>'Projection Expansion'!AH17</f>
-        <v>89898.000000000087</v>
+        <v>104909.99999999991</v>
       </c>
       <c r="AG17" s="20">
         <f>'Projection Expansion'!AI17</f>
-        <v>90629.600000000093</v>
+        <v>106642.39999999991</v>
       </c>
       <c r="AH17" s="20">
         <f>'Projection Expansion'!AJ17</f>
-        <v>91361.200000000099</v>
+        <v>108374.7999999999</v>
       </c>
       <c r="AI17" s="20">
         <f>'Projection Expansion'!AK17</f>
-        <v>92092.800000000105</v>
+        <v>110107.1999999999</v>
       </c>
       <c r="AJ17" s="20">
         <f>'Projection Expansion'!AL17</f>
-        <v>92824.400000000111</v>
+        <v>111839.59999999989</v>
       </c>
       <c r="AK17" s="20">
         <f>'Projection Expansion'!AM17</f>
-        <v>93556.000000000116</v>
+        <v>113571.99999999988</v>
       </c>
       <c r="AL17" s="20">
         <f>'Projection Expansion'!AN17</f>
-        <v>94287.600000000122</v>
+        <v>115304.39999999988</v>
       </c>
       <c r="AM17" s="20">
         <f>'Projection Expansion'!AO17</f>
-        <v>95019.200000000128</v>
+        <v>117036.79999999987</v>
       </c>
       <c r="AN17" s="20">
         <f>'Projection Expansion'!AP17</f>
-        <v>95750.800000000134</v>
+        <v>118769.19999999987</v>
       </c>
       <c r="AO17" s="20">
         <f>'Projection Expansion'!AQ17</f>
-        <v>96482.40000000014</v>
+        <v>120501.59999999986</v>
       </c>
       <c r="AP17" s="20">
         <f>'Projection Expansion'!AR17</f>
-        <v>97214.000000000146</v>
+        <v>122233.99999999985</v>
       </c>
       <c r="AQ17" s="20">
         <f>'Projection Expansion'!AS17</f>
-        <v>97945.600000000151</v>
+        <v>123966.39999999985</v>
       </c>
       <c r="AR17" s="20">
         <f>'Projection Expansion'!AT17</f>
-        <v>98677.200000000157</v>
+        <v>125698.79999999984</v>
       </c>
       <c r="AS17" s="20">
         <f>'Projection Expansion'!AU17</f>
-        <v>99408.800000000163</v>
+        <v>127431.19999999984</v>
       </c>
       <c r="AT17" s="20">
         <f>'Projection Expansion'!AV17</f>
-        <v>100140.40000000017</v>
+        <v>129163.59999999983</v>
       </c>
       <c r="AU17" s="20">
         <f>'Projection Expansion'!AW17</f>
-        <v>100872.00000000017</v>
+        <v>130895.99999999983</v>
       </c>
       <c r="AV17" s="20">
         <f>'Projection Expansion'!AX17</f>
-        <v>101603.60000000018</v>
+        <v>132628.39999999982</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.2">
@@ -31999,127 +32076,127 @@
       </c>
       <c r="R18" s="20">
         <f>'Projection Expansion'!T18</f>
-        <v>118056</v>
+        <v>117222</v>
       </c>
       <c r="S18" s="20">
         <f>'Projection Expansion'!U18</f>
-        <v>122887</v>
+        <v>121219</v>
       </c>
       <c r="T18" s="20">
         <f>'Projection Expansion'!V18</f>
-        <v>127718</v>
+        <v>125216</v>
       </c>
       <c r="U18" s="20">
         <f>'Projection Expansion'!W18</f>
-        <v>132549</v>
+        <v>129213</v>
       </c>
       <c r="V18" s="20">
         <f>'Projection Expansion'!X18</f>
-        <v>137380</v>
+        <v>133210</v>
       </c>
       <c r="W18" s="20">
         <f>'Projection Expansion'!Y18</f>
-        <v>142211</v>
+        <v>137207</v>
       </c>
       <c r="X18" s="20">
         <f>'Projection Expansion'!Z18</f>
-        <v>147042</v>
+        <v>141204</v>
       </c>
       <c r="Y18" s="20">
         <f>'Projection Expansion'!AA18</f>
-        <v>151873</v>
+        <v>145201</v>
       </c>
       <c r="Z18" s="20">
         <f>'Projection Expansion'!AB18</f>
-        <v>156704</v>
+        <v>149198</v>
       </c>
       <c r="AA18" s="20">
         <f>'Projection Expansion'!AC18</f>
-        <v>161535</v>
+        <v>153195</v>
       </c>
       <c r="AB18" s="20">
         <f>'Projection Expansion'!AD18</f>
-        <v>166366</v>
+        <v>157192</v>
       </c>
       <c r="AC18" s="20">
         <f>'Projection Expansion'!AE18</f>
-        <v>171197</v>
+        <v>161189</v>
       </c>
       <c r="AD18" s="20">
         <f>'Projection Expansion'!AF18</f>
-        <v>176028</v>
+        <v>165186</v>
       </c>
       <c r="AE18" s="20">
         <f>'Projection Expansion'!AG18</f>
-        <v>180859</v>
+        <v>169183</v>
       </c>
       <c r="AF18" s="20">
         <f>'Projection Expansion'!AH18</f>
-        <v>185690</v>
+        <v>173180</v>
       </c>
       <c r="AG18" s="20">
         <f>'Projection Expansion'!AI18</f>
-        <v>190521</v>
+        <v>177177</v>
       </c>
       <c r="AH18" s="20">
         <f>'Projection Expansion'!AJ18</f>
-        <v>195352</v>
+        <v>181174</v>
       </c>
       <c r="AI18" s="20">
         <f>'Projection Expansion'!AK18</f>
-        <v>200183</v>
+        <v>185171</v>
       </c>
       <c r="AJ18" s="20">
         <f>'Projection Expansion'!AL18</f>
-        <v>205014</v>
+        <v>189168</v>
       </c>
       <c r="AK18" s="20">
         <f>'Projection Expansion'!AM18</f>
-        <v>209845</v>
+        <v>193165</v>
       </c>
       <c r="AL18" s="20">
         <f>'Projection Expansion'!AN18</f>
-        <v>214676</v>
+        <v>197162</v>
       </c>
       <c r="AM18" s="20">
         <f>'Projection Expansion'!AO18</f>
-        <v>219507</v>
+        <v>201159</v>
       </c>
       <c r="AN18" s="20">
         <f>'Projection Expansion'!AP18</f>
-        <v>224338</v>
+        <v>205156</v>
       </c>
       <c r="AO18" s="20">
         <f>'Projection Expansion'!AQ18</f>
-        <v>229169</v>
+        <v>209153</v>
       </c>
       <c r="AP18" s="20">
         <f>'Projection Expansion'!AR18</f>
-        <v>234000</v>
+        <v>213150</v>
       </c>
       <c r="AQ18" s="20">
         <f>'Projection Expansion'!AS18</f>
-        <v>238831</v>
+        <v>217147</v>
       </c>
       <c r="AR18" s="20">
         <f>'Projection Expansion'!AT18</f>
-        <v>243662</v>
+        <v>221144</v>
       </c>
       <c r="AS18" s="20">
         <f>'Projection Expansion'!AU18</f>
-        <v>248493</v>
+        <v>225141</v>
       </c>
       <c r="AT18" s="20">
         <f>'Projection Expansion'!AV18</f>
-        <v>253324</v>
+        <v>229138</v>
       </c>
       <c r="AU18" s="20">
         <f>'Projection Expansion'!AW18</f>
-        <v>258155</v>
+        <v>233135</v>
       </c>
       <c r="AV18" s="20">
         <f>'Projection Expansion'!AX18</f>
-        <v>262986</v>
+        <v>237132</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
@@ -34315,132 +34392,132 @@
       </c>
       <c r="R30" s="20">
         <f>'Projection Expansion'!T30</f>
-        <v>68382.2</v>
+        <v>68632.399999999994</v>
       </c>
       <c r="S30" s="20">
         <f>'Projection Expansion'!U30</f>
-        <v>69370.399999999994</v>
+        <v>69870.799999999988</v>
       </c>
       <c r="T30" s="20">
         <f>'Projection Expansion'!V30</f>
-        <v>70358.599999999991</v>
+        <v>71109.199999999983</v>
       </c>
       <c r="U30" s="20">
         <f>'Projection Expansion'!W30</f>
-        <v>71346.799999999988</v>
+        <v>72347.599999999977</v>
       </c>
       <c r="V30" s="20">
         <f>'Projection Expansion'!X30</f>
-        <v>72334.999999999985</v>
+        <v>73585.999999999971</v>
       </c>
       <c r="W30" s="20">
         <f>'Projection Expansion'!Y30</f>
-        <v>73323.199999999983</v>
+        <v>74824.399999999965</v>
       </c>
       <c r="X30" s="20">
         <f>'Projection Expansion'!Z30</f>
-        <v>74311.39999999998</v>
+        <v>76062.799999999959</v>
       </c>
       <c r="Y30" s="20">
         <f>'Projection Expansion'!AA30</f>
-        <v>75299.599999999977</v>
+        <v>77301.199999999953</v>
       </c>
       <c r="Z30" s="20">
         <f>'Projection Expansion'!AB30</f>
-        <v>76287.799999999974</v>
+        <v>78539.599999999948</v>
       </c>
       <c r="AA30" s="20">
         <f>'Projection Expansion'!AC30</f>
-        <v>77275.999999999971</v>
+        <v>79777.999999999942</v>
       </c>
       <c r="AB30" s="20">
         <f>'Projection Expansion'!AD30</f>
-        <v>78264.199999999968</v>
+        <v>81016.399999999936</v>
       </c>
       <c r="AC30" s="20">
         <f>'Projection Expansion'!AE30</f>
-        <v>79252.399999999965</v>
+        <v>82254.79999999993</v>
       </c>
       <c r="AD30" s="20">
         <f>'Projection Expansion'!AF30</f>
-        <v>80240.599999999962</v>
+        <v>83493.199999999924</v>
       </c>
       <c r="AE30" s="20">
         <f>'Projection Expansion'!AG30</f>
-        <v>81228.799999999959</v>
+        <v>84731.599999999919</v>
       </c>
       <c r="AF30" s="20">
         <f>'Projection Expansion'!AH30</f>
-        <v>82216.999999999956</v>
+        <v>85969.999999999913</v>
       </c>
       <c r="AG30" s="20">
         <f>'Projection Expansion'!AI30</f>
-        <v>83205.199999999953</v>
+        <v>87208.399999999907</v>
       </c>
       <c r="AH30" s="20">
         <f>'Projection Expansion'!AJ30</f>
-        <v>84193.399999999951</v>
+        <v>88446.799999999901</v>
       </c>
       <c r="AI30" s="20">
         <f>'Projection Expansion'!AK30</f>
-        <v>85181.599999999948</v>
+        <v>89685.199999999895</v>
       </c>
       <c r="AJ30" s="20">
         <f>'Projection Expansion'!AL30</f>
-        <v>86169.799999999945</v>
+        <v>90923.599999999889</v>
       </c>
       <c r="AK30" s="20">
         <f>'Projection Expansion'!AM30</f>
-        <v>87157.999999999942</v>
+        <v>92161.999999999884</v>
       </c>
       <c r="AL30" s="20">
         <f>'Projection Expansion'!AN30</f>
-        <v>88146.199999999939</v>
+        <v>93400.399999999878</v>
       </c>
       <c r="AM30" s="20">
         <f>'Projection Expansion'!AO30</f>
-        <v>89134.399999999936</v>
+        <v>94638.799999999872</v>
       </c>
       <c r="AN30" s="20">
         <f>'Projection Expansion'!AP30</f>
-        <v>90122.599999999933</v>
+        <v>95877.199999999866</v>
       </c>
       <c r="AO30" s="20">
         <f>'Projection Expansion'!AQ30</f>
-        <v>91110.79999999993</v>
+        <v>97115.59999999986</v>
       </c>
       <c r="AP30" s="20">
         <f>'Projection Expansion'!AR30</f>
-        <v>92098.999999999927</v>
+        <v>98353.999999999854</v>
       </c>
       <c r="AQ30" s="20">
         <f>'Projection Expansion'!AS30</f>
-        <v>93087.199999999924</v>
+        <v>99592.399999999849</v>
       </c>
       <c r="AR30" s="20">
         <f>'Projection Expansion'!AT30</f>
-        <v>94075.399999999921</v>
+        <v>100830.79999999984</v>
       </c>
       <c r="AS30" s="20">
         <f>'Projection Expansion'!AU30</f>
-        <v>95063.599999999919</v>
+        <v>102069.19999999984</v>
       </c>
       <c r="AT30" s="20">
         <f>'Projection Expansion'!AV30</f>
-        <v>96051.799999999916</v>
+        <v>103307.59999999983</v>
       </c>
       <c r="AU30" s="20">
         <f>'Projection Expansion'!AW30</f>
-        <v>97039.999999999913</v>
+        <v>104545.99999999983</v>
       </c>
       <c r="AV30" s="20">
         <f>'Projection Expansion'!AX30</f>
-        <v>98028.19999999991</v>
+        <v>105784.39999999982</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="22">
         <f>SUM(B5:B30)</f>
@@ -34508,7 +34585,7 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="0"/>
-        <v>1604649.9999999998</v>
+        <v>1604650</v>
       </c>
       <c r="S32" s="22">
         <f t="shared" si="0"/>
@@ -34516,11 +34593,11 @@
       </c>
       <c r="T32" s="22">
         <f t="shared" si="0"/>
-        <v>1650650</v>
+        <v>1650649.9999999998</v>
       </c>
       <c r="U32" s="22">
         <f t="shared" si="0"/>
-        <v>1673650.0000000002</v>
+        <v>1673650</v>
       </c>
       <c r="V32" s="22">
         <f t="shared" si="0"/>
@@ -34528,7 +34605,7 @@
       </c>
       <c r="W32" s="22">
         <f t="shared" si="0"/>
-        <v>1719650</v>
+        <v>1719649.9999999998</v>
       </c>
       <c r="X32" s="22">
         <f t="shared" si="0"/>
@@ -34536,11 +34613,11 @@
       </c>
       <c r="Y32" s="22">
         <f t="shared" si="0"/>
-        <v>1765650</v>
+        <v>1765649.9999999998</v>
       </c>
       <c r="Z32" s="22">
         <f t="shared" si="0"/>
-        <v>1788650.0000000002</v>
+        <v>1788649.9999999998</v>
       </c>
       <c r="AA32" s="22">
         <f t="shared" si="0"/>
@@ -34548,11 +34625,11 @@
       </c>
       <c r="AB32" s="22">
         <f t="shared" si="0"/>
-        <v>1834650</v>
+        <v>1834649.9999999998</v>
       </c>
       <c r="AC32" s="22">
         <f t="shared" si="0"/>
-        <v>1857650</v>
+        <v>1857649.9999999995</v>
       </c>
       <c r="AD32" s="22">
         <f t="shared" si="0"/>
@@ -34560,7 +34637,7 @@
       </c>
       <c r="AE32" s="22">
         <f t="shared" si="0"/>
-        <v>1903650</v>
+        <v>1903649.9999999998</v>
       </c>
       <c r="AF32" s="22">
         <f t="shared" si="0"/>
@@ -34568,19 +34645,19 @@
       </c>
       <c r="AG32" s="22">
         <f t="shared" si="0"/>
-        <v>1949650</v>
+        <v>1949649.9999999998</v>
       </c>
       <c r="AH32" s="22">
         <f t="shared" si="0"/>
-        <v>1972650</v>
+        <v>1972649.9999999995</v>
       </c>
       <c r="AI32" s="22">
         <f t="shared" si="0"/>
-        <v>1995650</v>
+        <v>1995649.9999999998</v>
       </c>
       <c r="AJ32" s="22">
         <f t="shared" si="0"/>
-        <v>2018650.0000000002</v>
+        <v>2018649.9999999998</v>
       </c>
       <c r="AK32" s="22">
         <f t="shared" si="0"/>
@@ -34588,15 +34665,15 @@
       </c>
       <c r="AL32" s="22">
         <f t="shared" si="0"/>
-        <v>2064650</v>
+        <v>2064649.9999999998</v>
       </c>
       <c r="AM32" s="22">
         <f t="shared" si="0"/>
-        <v>2087650</v>
+        <v>2087649.9999999995</v>
       </c>
       <c r="AN32" s="22">
         <f t="shared" si="0"/>
-        <v>2110650</v>
+        <v>2110649.9999999995</v>
       </c>
       <c r="AO32" s="22">
         <f t="shared" si="0"/>
@@ -34604,23 +34681,23 @@
       </c>
       <c r="AP32" s="22">
         <f t="shared" si="0"/>
-        <v>2156650</v>
+        <v>2156649.9999999995</v>
       </c>
       <c r="AQ32" s="22">
         <f t="shared" si="0"/>
-        <v>2179650</v>
+        <v>2179649.9999999995</v>
       </c>
       <c r="AR32" s="22">
         <f t="shared" si="0"/>
-        <v>2202650</v>
+        <v>2202649.9999999995</v>
       </c>
       <c r="AS32" s="22">
         <f t="shared" si="0"/>
-        <v>2225650</v>
+        <v>2225649.9999999995</v>
       </c>
       <c r="AT32" s="22">
         <f t="shared" si="0"/>
-        <v>2248650</v>
+        <v>2248649.9999999991</v>
       </c>
       <c r="AU32" s="22">
         <f t="shared" si="0"/>
@@ -34641,31 +34718,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="48" width="10.85546875" style="12" customWidth="1"/>
+    <col min="2" max="8" width="10.85546875" style="12" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="48" width="10.85546875" style="12" customWidth="1"/>
     <col min="49" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="17">
         <v>2004</v>
@@ -35004,7 +35083,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="20">
         <f>('Projection Expansion data'!B6*$F37)/$B37</f>
@@ -35072,127 +35151,127 @@
       </c>
       <c r="R6" s="20">
         <f>('Projection Expansion data'!R6*$F37)/$B37</f>
-        <v>3445.7702850384812</v>
+        <v>3455.3235415731142</v>
       </c>
       <c r="S6" s="20">
         <f>('Projection Expansion data'!S6*$F37)/$B37</f>
-        <v>3499.6763105204736</v>
+        <v>3518.7828235897391</v>
       </c>
       <c r="T6" s="20">
         <f>('Projection Expansion data'!T6*$F37)/$B37</f>
-        <v>3553.582336002466</v>
+        <v>3582.2421056063645</v>
       </c>
       <c r="U6" s="20">
         <f>('Projection Expansion data'!U6*$F37)/$B37</f>
-        <v>3607.4883614844584</v>
+        <v>3645.7013876229903</v>
       </c>
       <c r="V6" s="20">
         <f>('Projection Expansion data'!V6*$F37)/$B37</f>
-        <v>3661.3943869664508</v>
+        <v>3709.1606696396157</v>
       </c>
       <c r="W6" s="20">
         <f>('Projection Expansion data'!W6*$F37)/$B37</f>
-        <v>3715.3004124484432</v>
+        <v>3772.6199516562406</v>
       </c>
       <c r="X6" s="20">
         <f>('Projection Expansion data'!X6*$F37)/$B37</f>
-        <v>3769.2064379304356</v>
+        <v>3836.0792336728664</v>
       </c>
       <c r="Y6" s="20">
         <f>('Projection Expansion data'!Y6*$F37)/$B37</f>
-        <v>3823.112463412428</v>
+        <v>3899.5385156894918</v>
       </c>
       <c r="Z6" s="20">
         <f>('Projection Expansion data'!Z6*$F37)/$B37</f>
-        <v>3877.0184888944204</v>
+        <v>3962.9977977061171</v>
       </c>
       <c r="AA6" s="20">
         <f>('Projection Expansion data'!AA6*$F37)/$B37</f>
-        <v>3930.9245143764128</v>
+        <v>4026.457079722742</v>
       </c>
       <c r="AB6" s="20">
         <f>('Projection Expansion data'!AB6*$F37)/$B37</f>
-        <v>3984.8305398584052</v>
+        <v>4089.9163617393679</v>
       </c>
       <c r="AC6" s="20">
         <f>('Projection Expansion data'!AC6*$F37)/$B37</f>
-        <v>4038.7365653403976</v>
+        <v>4153.3756437559932</v>
       </c>
       <c r="AD6" s="20">
         <f>('Projection Expansion data'!AD6*$F37)/$B37</f>
-        <v>4092.6425908223905</v>
+        <v>4216.8349257726186</v>
       </c>
       <c r="AE6" s="20">
         <f>('Projection Expansion data'!AE6*$F37)/$B37</f>
-        <v>4146.5486163043834</v>
+        <v>4280.294207789244</v>
       </c>
       <c r="AF6" s="20">
         <f>('Projection Expansion data'!AF6*$F37)/$B37</f>
-        <v>4200.4546417863758</v>
+        <v>4343.7534898058693</v>
       </c>
       <c r="AG6" s="20">
         <f>('Projection Expansion data'!AG6*$F37)/$B37</f>
-        <v>4254.3606672683682</v>
+        <v>4407.2127718224947</v>
       </c>
       <c r="AH6" s="20">
         <f>('Projection Expansion data'!AH6*$F37)/$B37</f>
-        <v>4308.2666927503606</v>
+        <v>4470.672053839121</v>
       </c>
       <c r="AI6" s="20">
         <f>('Projection Expansion data'!AI6*$F37)/$B37</f>
-        <v>4362.172718232353</v>
+        <v>4534.1313358557454</v>
       </c>
       <c r="AJ6" s="20">
         <f>('Projection Expansion data'!AJ6*$F37)/$B37</f>
-        <v>4416.0787437143454</v>
+        <v>4597.5906178723708</v>
       </c>
       <c r="AK6" s="20">
         <f>('Projection Expansion data'!AK6*$F37)/$B37</f>
-        <v>4469.9847691963378</v>
+        <v>4661.0498998889962</v>
       </c>
       <c r="AL6" s="20">
         <f>('Projection Expansion data'!AL6*$F37)/$B37</f>
-        <v>4523.8907946783302</v>
+        <v>4724.5091819056224</v>
       </c>
       <c r="AM6" s="20">
         <f>('Projection Expansion data'!AM6*$F37)/$B37</f>
-        <v>4577.7968201603226</v>
+        <v>4787.9684639222469</v>
       </c>
       <c r="AN6" s="20">
         <f>('Projection Expansion data'!AN6*$F37)/$B37</f>
-        <v>4631.702845642315</v>
+        <v>4851.4277459388722</v>
       </c>
       <c r="AO6" s="20">
         <f>('Projection Expansion data'!AO6*$F37)/$B37</f>
-        <v>4685.6088711243074</v>
+        <v>4914.8870279554985</v>
       </c>
       <c r="AP6" s="20">
         <f>('Projection Expansion data'!AP6*$F37)/$B37</f>
-        <v>4739.5148966062998</v>
+        <v>4978.3463099721239</v>
       </c>
       <c r="AQ6" s="20">
         <f>('Projection Expansion data'!AQ6*$F37)/$B37</f>
-        <v>4793.4209220882922</v>
+        <v>5041.8055919887483</v>
       </c>
       <c r="AR6" s="20">
         <f>('Projection Expansion data'!AR6*$F37)/$B37</f>
-        <v>4847.3269475702846</v>
+        <v>5105.2648740053746</v>
       </c>
       <c r="AS6" s="20">
         <f>('Projection Expansion data'!AS6*$F37)/$B37</f>
-        <v>4901.232973052277</v>
+        <v>5168.724156022</v>
       </c>
       <c r="AT6" s="20">
         <f>('Projection Expansion data'!AT6*$F37)/$B37</f>
-        <v>4955.1389985342694</v>
+        <v>5232.1834380386254</v>
       </c>
       <c r="AU6" s="20">
         <f>('Projection Expansion data'!AU6*$F37)/$B37</f>
-        <v>5009.0450240162618</v>
+        <v>5295.6427200552498</v>
       </c>
       <c r="AV6" s="20">
         <f>('Projection Expansion data'!AV6*$F37)/$B37</f>
-        <v>5062.9510494982542</v>
+        <v>5359.1020020718761</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.2">
@@ -36616,127 +36695,127 @@
       </c>
       <c r="R14" s="20">
         <f>('Projection Expansion data'!R14*$F45)/$B45</f>
-        <v>376.87105062187101</v>
+        <v>373.99636002720899</v>
       </c>
       <c r="S14" s="20">
         <f>('Projection Expansion data'!S14*$F45)/$B45</f>
-        <v>388.984340897425</v>
+        <v>383.23495970810103</v>
       </c>
       <c r="T14" s="20">
         <f>('Projection Expansion data'!T14*$F45)/$B45</f>
-        <v>401.09763117297905</v>
+        <v>392.47355938899307</v>
       </c>
       <c r="U14" s="20">
         <f>('Projection Expansion data'!U14*$F45)/$B45</f>
-        <v>413.2109214485331</v>
+        <v>401.7121590698851</v>
       </c>
       <c r="V14" s="20">
         <f>('Projection Expansion data'!V14*$F45)/$B45</f>
-        <v>425.32421172408709</v>
+        <v>410.95075875077714</v>
       </c>
       <c r="W14" s="20">
         <f>('Projection Expansion data'!W14*$F45)/$B45</f>
-        <v>437.43750199964109</v>
+        <v>420.18935843166918</v>
       </c>
       <c r="X14" s="20">
         <f>('Projection Expansion data'!X14*$F45)/$B45</f>
-        <v>449.55079227519508</v>
+        <v>429.42795811256121</v>
       </c>
       <c r="Y14" s="20">
         <f>('Projection Expansion data'!Y14*$F45)/$B45</f>
-        <v>461.66408255074919</v>
+        <v>438.66655779345331</v>
       </c>
       <c r="Z14" s="20">
         <f>('Projection Expansion data'!Z14*$F45)/$B45</f>
-        <v>473.77737282630318</v>
+        <v>447.90515747434534</v>
       </c>
       <c r="AA14" s="20">
         <f>('Projection Expansion data'!AA14*$F45)/$B45</f>
-        <v>485.89066310185717</v>
+        <v>457.14375715523738</v>
       </c>
       <c r="AB14" s="20">
         <f>('Projection Expansion data'!AB14*$F45)/$B45</f>
-        <v>498.00395337741122</v>
+        <v>466.38235683612942</v>
       </c>
       <c r="AC14" s="20">
         <f>('Projection Expansion data'!AC14*$F45)/$B45</f>
-        <v>510.11724365296527</v>
+        <v>475.62095651702145</v>
       </c>
       <c r="AD14" s="20">
         <f>('Projection Expansion data'!AD14*$F45)/$B45</f>
-        <v>522.23053392851932</v>
+        <v>484.85955619791349</v>
       </c>
       <c r="AE14" s="20">
         <f>('Projection Expansion data'!AE14*$F45)/$B45</f>
-        <v>534.34382420407326</v>
+        <v>494.09815587880553</v>
       </c>
       <c r="AF14" s="20">
         <f>('Projection Expansion data'!AF14*$F45)/$B45</f>
-        <v>546.45711447962731</v>
+        <v>503.33675555969756</v>
       </c>
       <c r="AG14" s="20">
         <f>('Projection Expansion data'!AG14*$F45)/$B45</f>
-        <v>558.57040475518136</v>
+        <v>512.5753552405896</v>
       </c>
       <c r="AH14" s="20">
         <f>('Projection Expansion data'!AH14*$F45)/$B45</f>
-        <v>570.68369503073529</v>
+        <v>521.8139549214817</v>
       </c>
       <c r="AI14" s="20">
         <f>('Projection Expansion data'!AI14*$F45)/$B45</f>
-        <v>582.79698530628934</v>
+        <v>531.05255460237368</v>
       </c>
       <c r="AJ14" s="20">
         <f>('Projection Expansion data'!AJ14*$F45)/$B45</f>
-        <v>594.91027558184351</v>
+        <v>540.29115428326577</v>
       </c>
       <c r="AK14" s="20">
         <f>('Projection Expansion data'!AK14*$F45)/$B45</f>
-        <v>607.02356585739744</v>
+        <v>549.52975396415786</v>
       </c>
       <c r="AL14" s="20">
         <f>('Projection Expansion data'!AL14*$F45)/$B45</f>
-        <v>619.13685613295149</v>
+        <v>558.76835364504984</v>
       </c>
       <c r="AM14" s="20">
         <f>('Projection Expansion data'!AM14*$F45)/$B45</f>
-        <v>631.25014640850543</v>
+        <v>568.00695332594194</v>
       </c>
       <c r="AN14" s="20">
         <f>('Projection Expansion data'!AN14*$F45)/$B45</f>
-        <v>643.36343668405948</v>
+        <v>577.24555300683392</v>
       </c>
       <c r="AO14" s="20">
         <f>('Projection Expansion data'!AO14*$F45)/$B45</f>
-        <v>655.47672695961353</v>
+        <v>586.48415268772601</v>
       </c>
       <c r="AP14" s="20">
         <f>('Projection Expansion data'!AP14*$F45)/$B45</f>
-        <v>667.59001723516747</v>
+        <v>595.72275236861799</v>
       </c>
       <c r="AQ14" s="20">
         <f>('Projection Expansion data'!AQ14*$F45)/$B45</f>
-        <v>679.70330751072163</v>
+        <v>604.96135204951008</v>
       </c>
       <c r="AR14" s="20">
         <f>('Projection Expansion data'!AR14*$F45)/$B45</f>
-        <v>691.81659778627557</v>
+        <v>614.19995173040206</v>
       </c>
       <c r="AS14" s="20">
         <f>('Projection Expansion data'!AS14*$F45)/$B45</f>
-        <v>703.92988806182962</v>
+        <v>623.43855141129416</v>
       </c>
       <c r="AT14" s="20">
         <f>('Projection Expansion data'!AT14*$F45)/$B45</f>
-        <v>716.04317833738367</v>
+        <v>632.67715109218614</v>
       </c>
       <c r="AU14" s="20">
         <f>('Projection Expansion data'!AU14*$F45)/$B45</f>
-        <v>728.1564686129376</v>
+        <v>641.91575077307823</v>
       </c>
       <c r="AV14" s="20">
         <f>('Projection Expansion data'!AV14*$F45)/$B45</f>
-        <v>740.26975888849165</v>
+        <v>651.15435045397032</v>
       </c>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.2">
@@ -37195,127 +37274,127 @@
       </c>
       <c r="R17" s="20">
         <f>('Projection Expansion data'!R17*$F48)/$B48</f>
-        <v>5089.6536467288033</v>
+        <v>5153.6005050745589</v>
       </c>
       <c r="S17" s="20">
         <f>('Projection Expansion data'!S17*$F48)/$B48</f>
-        <v>5136.3997713948256</v>
+        <v>5264.2934880863359</v>
       </c>
       <c r="T17" s="20">
         <f>('Projection Expansion data'!T17*$F48)/$B48</f>
-        <v>5183.1458960608488</v>
+        <v>5374.9864710981137</v>
       </c>
       <c r="U17" s="20">
         <f>('Projection Expansion data'!U17*$F48)/$B48</f>
-        <v>5229.8920207268711</v>
+        <v>5485.6794541098907</v>
       </c>
       <c r="V17" s="20">
         <f>('Projection Expansion data'!V17*$F48)/$B48</f>
-        <v>5276.6381453928934</v>
+        <v>5596.3724371216686</v>
       </c>
       <c r="W17" s="20">
         <f>('Projection Expansion data'!W17*$F48)/$B48</f>
-        <v>5323.3842700589157</v>
+        <v>5707.0654201334464</v>
       </c>
       <c r="X17" s="20">
         <f>('Projection Expansion data'!X17*$F48)/$B48</f>
-        <v>5370.130394724938</v>
+        <v>5817.7584031452234</v>
       </c>
       <c r="Y17" s="20">
         <f>('Projection Expansion data'!Y17*$F48)/$B48</f>
-        <v>5416.8765193909603</v>
+        <v>5928.4513861570013</v>
       </c>
       <c r="Z17" s="20">
         <f>('Projection Expansion data'!Z17*$F48)/$B48</f>
-        <v>5463.6226440569826</v>
+        <v>6039.1443691687791</v>
       </c>
       <c r="AA17" s="20">
         <f>('Projection Expansion data'!AA17*$F48)/$B48</f>
-        <v>5510.3687687230058</v>
+        <v>6149.837352180557</v>
       </c>
       <c r="AB17" s="20">
         <f>('Projection Expansion data'!AB17*$F48)/$B48</f>
-        <v>5557.1148933890281</v>
+        <v>6260.5303351923349</v>
       </c>
       <c r="AC17" s="20">
         <f>('Projection Expansion data'!AC17*$F48)/$B48</f>
-        <v>5603.8610180550513</v>
+        <v>6371.2233182041118</v>
       </c>
       <c r="AD17" s="20">
         <f>('Projection Expansion data'!AD17*$F48)/$B48</f>
-        <v>5650.6071427210736</v>
+        <v>6481.9163012158888</v>
       </c>
       <c r="AE17" s="20">
         <f>('Projection Expansion data'!AE17*$F48)/$B48</f>
-        <v>5697.3532673870959</v>
+        <v>6592.6092842276666</v>
       </c>
       <c r="AF17" s="20">
         <f>('Projection Expansion data'!AF17*$F48)/$B48</f>
-        <v>5744.0993920531182</v>
+        <v>6703.3022672394436</v>
       </c>
       <c r="AG17" s="20">
         <f>('Projection Expansion data'!AG17*$F48)/$B48</f>
-        <v>5790.8455167191405</v>
+        <v>6813.9952502512215</v>
       </c>
       <c r="AH17" s="20">
         <f>('Projection Expansion data'!AH17*$F48)/$B48</f>
-        <v>5837.5916413851628</v>
+        <v>6924.6882332629984</v>
       </c>
       <c r="AI17" s="20">
         <f>('Projection Expansion data'!AI17*$F48)/$B48</f>
-        <v>5884.3377660511851</v>
+        <v>7035.3812162747772</v>
       </c>
       <c r="AJ17" s="20">
         <f>('Projection Expansion data'!AJ17*$F48)/$B48</f>
-        <v>5931.0838907172083</v>
+        <v>7146.0741992865551</v>
       </c>
       <c r="AK17" s="20">
         <f>('Projection Expansion data'!AK17*$F48)/$B48</f>
-        <v>5977.8300153832306</v>
+        <v>7256.767182298332</v>
       </c>
       <c r="AL17" s="20">
         <f>('Projection Expansion data'!AL17*$F48)/$B48</f>
-        <v>6024.5761400492538</v>
+        <v>7367.4601653101099</v>
       </c>
       <c r="AM17" s="20">
         <f>('Projection Expansion data'!AM17*$F48)/$B48</f>
-        <v>6071.3222647152761</v>
+        <v>7478.1531483218869</v>
       </c>
       <c r="AN17" s="20">
         <f>('Projection Expansion data'!AN17*$F48)/$B48</f>
-        <v>6118.0683893812984</v>
+        <v>7588.8461313336647</v>
       </c>
       <c r="AO17" s="20">
         <f>('Projection Expansion data'!AO17*$F48)/$B48</f>
-        <v>6164.8145140473216</v>
+        <v>7699.5391143454417</v>
       </c>
       <c r="AP17" s="20">
         <f>('Projection Expansion data'!AP17*$F48)/$B48</f>
-        <v>6211.560638713343</v>
+        <v>7810.2320973572196</v>
       </c>
       <c r="AQ17" s="20">
         <f>('Projection Expansion data'!AQ17*$F48)/$B48</f>
-        <v>6258.3067633793662</v>
+        <v>7920.9250803689974</v>
       </c>
       <c r="AR17" s="20">
         <f>('Projection Expansion data'!AR17*$F48)/$B48</f>
-        <v>6305.0528880453876</v>
+        <v>8031.6180633807753</v>
       </c>
       <c r="AS17" s="20">
         <f>('Projection Expansion data'!AS17*$F48)/$B48</f>
-        <v>6351.7990127114108</v>
+        <v>8142.3110463925523</v>
       </c>
       <c r="AT17" s="20">
         <f>('Projection Expansion data'!AT17*$F48)/$B48</f>
-        <v>6398.5451373774331</v>
+        <v>8253.0040294043301</v>
       </c>
       <c r="AU17" s="20">
         <f>('Projection Expansion data'!AU17*$F48)/$B48</f>
-        <v>6445.2912620434563</v>
+        <v>8363.6970124161071</v>
       </c>
       <c r="AV17" s="20">
         <f>('Projection Expansion data'!AV17*$F48)/$B48</f>
-        <v>6492.0373867094777</v>
+        <v>8474.3899954278841</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.2">
@@ -37388,127 +37467,127 @@
       </c>
       <c r="R18" s="20">
         <f>('Projection Expansion data'!R18*$F49)/$B49</f>
-        <v>927.18833172379755</v>
+        <v>920.63826168366711</v>
       </c>
       <c r="S18" s="20">
         <f>('Projection Expansion data'!S18*$F49)/$B49</f>
-        <v>965.13004439030874</v>
+        <v>952.02990431004787</v>
       </c>
       <c r="T18" s="20">
         <f>('Projection Expansion data'!T18*$F49)/$B49</f>
-        <v>1003.0717570568203</v>
+        <v>983.42154693642863</v>
       </c>
       <c r="U18" s="20">
         <f>('Projection Expansion data'!U18*$F49)/$B49</f>
-        <v>1041.0134697233316</v>
+        <v>1014.8131895628096</v>
       </c>
       <c r="V18" s="20">
         <f>('Projection Expansion data'!V18*$F49)/$B49</f>
-        <v>1078.955182389843</v>
+        <v>1046.2048321891905</v>
       </c>
       <c r="W18" s="20">
         <f>('Projection Expansion data'!W18*$F49)/$B49</f>
-        <v>1116.8968950563544</v>
+        <v>1077.5964748155714</v>
       </c>
       <c r="X18" s="20">
         <f>('Projection Expansion data'!X18*$F49)/$B49</f>
-        <v>1154.8386077228656</v>
+        <v>1108.9881174419522</v>
       </c>
       <c r="Y18" s="20">
         <f>('Projection Expansion data'!Y18*$F49)/$B49</f>
-        <v>1192.780320389377</v>
+        <v>1140.3797600683331</v>
       </c>
       <c r="Z18" s="20">
         <f>('Projection Expansion data'!Z18*$F49)/$B49</f>
-        <v>1230.7220330558885</v>
+        <v>1171.7714026947137</v>
       </c>
       <c r="AA18" s="20">
         <f>('Projection Expansion data'!AA18*$F49)/$B49</f>
-        <v>1268.6637457223999</v>
+        <v>1203.1630453210948</v>
       </c>
       <c r="AB18" s="20">
         <f>('Projection Expansion data'!AB18*$F49)/$B49</f>
-        <v>1306.6054583889111</v>
+        <v>1234.5546879474757</v>
       </c>
       <c r="AC18" s="20">
         <f>('Projection Expansion data'!AC18*$F49)/$B49</f>
-        <v>1344.5471710554225</v>
+        <v>1265.9463305738564</v>
       </c>
       <c r="AD18" s="20">
         <f>('Projection Expansion data'!AD18*$F49)/$B49</f>
-        <v>1382.4888837219339</v>
+        <v>1297.3379732002372</v>
       </c>
       <c r="AE18" s="20">
         <f>('Projection Expansion data'!AE18*$F49)/$B49</f>
-        <v>1420.4305963884453</v>
+        <v>1328.7296158266183</v>
       </c>
       <c r="AF18" s="20">
         <f>('Projection Expansion data'!AF18*$F49)/$B49</f>
-        <v>1458.3723090549568</v>
+        <v>1360.121258452999</v>
       </c>
       <c r="AG18" s="20">
         <f>('Projection Expansion data'!AG18*$F49)/$B49</f>
-        <v>1496.314021721468</v>
+        <v>1391.5129010793798</v>
       </c>
       <c r="AH18" s="20">
         <f>('Projection Expansion data'!AH18*$F49)/$B49</f>
-        <v>1534.2557343879794</v>
+        <v>1422.9045437057607</v>
       </c>
       <c r="AI18" s="20">
         <f>('Projection Expansion data'!AI18*$F49)/$B49</f>
-        <v>1572.1974470544906</v>
+        <v>1454.2961863321416</v>
       </c>
       <c r="AJ18" s="20">
         <f>('Projection Expansion data'!AJ18*$F49)/$B49</f>
-        <v>1610.1391597210022</v>
+        <v>1485.6878289585225</v>
       </c>
       <c r="AK18" s="20">
         <f>('Projection Expansion data'!AK18*$F49)/$B49</f>
-        <v>1648.0808723875134</v>
+        <v>1517.0794715849033</v>
       </c>
       <c r="AL18" s="20">
         <f>('Projection Expansion data'!AL18*$F49)/$B49</f>
-        <v>1686.0225850540248</v>
+        <v>1548.4711142112842</v>
       </c>
       <c r="AM18" s="20">
         <f>('Projection Expansion data'!AM18*$F49)/$B49</f>
-        <v>1723.9642977205363</v>
+        <v>1579.8627568376651</v>
       </c>
       <c r="AN18" s="20">
         <f>('Projection Expansion data'!AN18*$F49)/$B49</f>
-        <v>1761.9060103870474</v>
+        <v>1611.2543994640459</v>
       </c>
       <c r="AO18" s="20">
         <f>('Projection Expansion data'!AO18*$F49)/$B49</f>
-        <v>1799.8477230535589</v>
+        <v>1642.6460420904268</v>
       </c>
       <c r="AP18" s="20">
         <f>('Projection Expansion data'!AP18*$F49)/$B49</f>
-        <v>1837.7894357200705</v>
+        <v>1674.0376847168077</v>
       </c>
       <c r="AQ18" s="20">
         <f>('Projection Expansion data'!AQ18*$F49)/$B49</f>
-        <v>1875.7311483865817</v>
+        <v>1705.4293273431886</v>
       </c>
       <c r="AR18" s="20">
         <f>('Projection Expansion data'!AR18*$F49)/$B49</f>
-        <v>1913.6728610530929</v>
+        <v>1736.8209699695692</v>
       </c>
       <c r="AS18" s="20">
         <f>('Projection Expansion data'!AS18*$F49)/$B49</f>
-        <v>1951.6145737196043</v>
+        <v>1768.2126125959501</v>
       </c>
       <c r="AT18" s="20">
         <f>('Projection Expansion data'!AT18*$F49)/$B49</f>
-        <v>1989.556286386116</v>
+        <v>1799.6042552223312</v>
       </c>
       <c r="AU18" s="20">
         <f>('Projection Expansion data'!AU18*$F49)/$B49</f>
-        <v>2027.4979990526272</v>
+        <v>1830.9958978487118</v>
       </c>
       <c r="AV18" s="20">
         <f>('Projection Expansion data'!AV18*$F49)/$B49</f>
-        <v>2065.4397117191384</v>
+        <v>1862.3875404750927</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.2">
@@ -39704,132 +39783,132 @@
       </c>
       <c r="R30" s="20">
         <f>('Projection Expansion data'!R30*$F61)/$B61</f>
-        <v>180.22513644749384</v>
+        <v>180.88455262800807</v>
       </c>
       <c r="S30" s="20">
         <f>('Projection Expansion data'!S30*$F61)/$B61</f>
-        <v>182.82959316046023</v>
+        <v>184.14842552148878</v>
       </c>
       <c r="T30" s="20">
         <f>('Projection Expansion data'!T30*$F61)/$B61</f>
-        <v>185.43404987342669</v>
+        <v>187.41229841496946</v>
       </c>
       <c r="U30" s="20">
         <f>('Projection Expansion data'!U30*$F61)/$B61</f>
-        <v>188.03850658639308</v>
+        <v>190.67617130845017</v>
       </c>
       <c r="V30" s="20">
         <f>('Projection Expansion data'!V30*$F61)/$B61</f>
-        <v>190.64296329935954</v>
+        <v>193.94004420193085</v>
       </c>
       <c r="W30" s="20">
         <f>('Projection Expansion data'!W30*$F61)/$B61</f>
-        <v>193.24742001232596</v>
+        <v>197.20391709541155</v>
       </c>
       <c r="X30" s="20">
         <f>('Projection Expansion data'!X30*$F61)/$B61</f>
-        <v>195.85187672529239</v>
+        <v>200.46778998889224</v>
       </c>
       <c r="Y30" s="20">
         <f>('Projection Expansion data'!Y30*$F61)/$B61</f>
-        <v>198.45633343825881</v>
+        <v>203.73166288237292</v>
       </c>
       <c r="Z30" s="20">
         <f>('Projection Expansion data'!Z30*$F61)/$B61</f>
-        <v>201.06079015122523</v>
+        <v>206.9955357758536</v>
       </c>
       <c r="AA30" s="20">
         <f>('Projection Expansion data'!AA30*$F61)/$B61</f>
-        <v>203.66524686419169</v>
+        <v>210.25940866933431</v>
       </c>
       <c r="AB30" s="20">
         <f>('Projection Expansion data'!AB30*$F61)/$B61</f>
-        <v>206.26970357715808</v>
+        <v>213.52328156281499</v>
       </c>
       <c r="AC30" s="20">
         <f>('Projection Expansion data'!AC30*$F61)/$B61</f>
-        <v>208.87416029012454</v>
+        <v>216.78715445629567</v>
       </c>
       <c r="AD30" s="20">
         <f>('Projection Expansion data'!AD30*$F61)/$B61</f>
-        <v>211.47861700309096</v>
+        <v>220.05102734977638</v>
       </c>
       <c r="AE30" s="20">
         <f>('Projection Expansion data'!AE30*$F61)/$B61</f>
-        <v>214.08307371605738</v>
+        <v>223.31490024325709</v>
       </c>
       <c r="AF30" s="20">
         <f>('Projection Expansion data'!AF30*$F61)/$B61</f>
-        <v>216.68753042902381</v>
+        <v>226.57877313673777</v>
       </c>
       <c r="AG30" s="20">
         <f>('Projection Expansion data'!AG30*$F61)/$B61</f>
-        <v>219.29198714199023</v>
+        <v>229.84264603021845</v>
       </c>
       <c r="AH30" s="20">
         <f>('Projection Expansion data'!AH30*$F61)/$B61</f>
-        <v>221.89644385495666</v>
+        <v>233.10651892369913</v>
       </c>
       <c r="AI30" s="20">
         <f>('Projection Expansion data'!AI30*$F61)/$B61</f>
-        <v>224.50090056792311</v>
+        <v>236.37039181717984</v>
       </c>
       <c r="AJ30" s="20">
         <f>('Projection Expansion data'!AJ30*$F61)/$B61</f>
-        <v>227.10535728088951</v>
+        <v>239.63426471066052</v>
       </c>
       <c r="AK30" s="20">
         <f>('Projection Expansion data'!AK30*$F61)/$B61</f>
-        <v>229.70981399385596</v>
+        <v>242.8981376041412</v>
       </c>
       <c r="AL30" s="20">
         <f>('Projection Expansion data'!AL30*$F61)/$B61</f>
-        <v>232.31427070682236</v>
+        <v>246.16201049762188</v>
       </c>
       <c r="AM30" s="20">
         <f>('Projection Expansion data'!AM30*$F61)/$B61</f>
-        <v>234.91872741978881</v>
+        <v>249.42588339110262</v>
       </c>
       <c r="AN30" s="20">
         <f>('Projection Expansion data'!AN30*$F61)/$B61</f>
-        <v>237.52318413275523</v>
+        <v>252.6897562845833</v>
       </c>
       <c r="AO30" s="20">
         <f>('Projection Expansion data'!AO30*$F61)/$B61</f>
-        <v>240.12764084572166</v>
+        <v>255.95362917806398</v>
       </c>
       <c r="AP30" s="20">
         <f>('Projection Expansion data'!AP30*$F61)/$B61</f>
-        <v>242.73209755868811</v>
+        <v>259.21750207154469</v>
       </c>
       <c r="AQ30" s="20">
         <f>('Projection Expansion data'!AQ30*$F61)/$B61</f>
-        <v>245.33655427165451</v>
+        <v>262.48137496502534</v>
       </c>
       <c r="AR30" s="20">
         <f>('Projection Expansion data'!AR30*$F61)/$B61</f>
-        <v>247.94101098462096</v>
+        <v>265.74524785850605</v>
       </c>
       <c r="AS30" s="20">
         <f>('Projection Expansion data'!AS30*$F61)/$B61</f>
-        <v>250.54546769758736</v>
+        <v>269.0091207519867</v>
       </c>
       <c r="AT30" s="20">
         <f>('Projection Expansion data'!AT30*$F61)/$B61</f>
-        <v>253.14992441055381</v>
+        <v>272.27299364546741</v>
       </c>
       <c r="AU30" s="20">
         <f>('Projection Expansion data'!AU30*$F61)/$B61</f>
-        <v>255.75438112352023</v>
+        <v>275.53686653894812</v>
       </c>
       <c r="AV30" s="20">
         <f>('Projection Expansion data'!AV30*$F61)/$B61</f>
-        <v>258.35883783648666</v>
+        <v>278.80073943242883</v>
       </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="22">
         <f>SUM(B5:B30)</f>
@@ -39897,156 +39976,162 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="0"/>
-        <v>22577.558219188017</v>
+        <v>22642.292989614129</v>
       </c>
       <c r="S32" s="22">
         <f t="shared" si="0"/>
-        <v>22924.689000385886</v>
+        <v>23054.15854123811</v>
       </c>
       <c r="T32" s="22">
         <f t="shared" si="0"/>
-        <v>23271.819781583759</v>
+        <v>23466.024092862084</v>
       </c>
       <c r="U32" s="22">
         <f t="shared" si="0"/>
-        <v>23618.950562781629</v>
+        <v>23877.889644486066</v>
       </c>
       <c r="V32" s="22">
         <f t="shared" si="0"/>
-        <v>23966.081343979498</v>
+        <v>24289.755196110043</v>
       </c>
       <c r="W32" s="22">
         <f t="shared" si="0"/>
-        <v>24313.212125177361</v>
+        <v>24701.620747734021</v>
       </c>
       <c r="X32" s="22">
         <f t="shared" si="0"/>
-        <v>24660.342906375226</v>
+        <v>25113.486299357995</v>
       </c>
       <c r="Y32" s="22">
         <f t="shared" si="0"/>
-        <v>25007.473687573103</v>
+        <v>25525.351850981984</v>
       </c>
       <c r="Z32" s="22">
         <f t="shared" si="0"/>
-        <v>25354.604468770973</v>
+        <v>25937.217402605962</v>
       </c>
       <c r="AA32" s="22">
         <f t="shared" si="0"/>
-        <v>25701.735249968842</v>
+        <v>26349.082954229943</v>
       </c>
       <c r="AB32" s="22">
         <f t="shared" si="0"/>
-        <v>26048.866031166712</v>
+        <v>26760.948505853921</v>
       </c>
       <c r="AC32" s="22">
         <f t="shared" si="0"/>
-        <v>26395.996812364574</v>
+        <v>27172.814057477892</v>
       </c>
       <c r="AD32" s="22">
         <f t="shared" si="0"/>
-        <v>26743.127593562444</v>
+        <v>27584.679609101873</v>
       </c>
       <c r="AE32" s="22">
         <f t="shared" si="0"/>
-        <v>27090.258374760313</v>
+        <v>27996.545160725851</v>
       </c>
       <c r="AF32" s="22">
         <f t="shared" si="0"/>
-        <v>27437.389155958179</v>
+        <v>28408.410712349825</v>
       </c>
       <c r="AG32" s="22">
         <f t="shared" si="0"/>
-        <v>27784.519937156048</v>
+        <v>28820.276263973803</v>
       </c>
       <c r="AH32" s="22">
         <f t="shared" si="0"/>
-        <v>28131.650718353932</v>
+        <v>29232.141815597803</v>
       </c>
       <c r="AI32" s="22">
         <f t="shared" si="0"/>
-        <v>28478.781499551791</v>
+        <v>29644.00736722177</v>
       </c>
       <c r="AJ32" s="22">
         <f t="shared" si="0"/>
-        <v>28825.912280749661</v>
+        <v>30055.872918845747</v>
       </c>
       <c r="AK32" s="22">
         <f t="shared" si="0"/>
-        <v>29173.043061947534</v>
+        <v>30467.738470469725</v>
       </c>
       <c r="AL32" s="22">
         <f t="shared" si="0"/>
-        <v>29520.173843145403</v>
+        <v>30879.604022093707</v>
       </c>
       <c r="AM32" s="22">
         <f t="shared" si="0"/>
-        <v>29867.304624343269</v>
+        <v>31291.469573717681</v>
       </c>
       <c r="AN32" s="22">
         <f t="shared" si="0"/>
-        <v>30214.435405541142</v>
+        <v>31703.335125341666</v>
       </c>
       <c r="AO32" s="22">
         <f t="shared" si="0"/>
-        <v>30561.566186739004</v>
+        <v>32115.200676965636</v>
       </c>
       <c r="AP32" s="22">
         <f t="shared" si="0"/>
-        <v>30908.696967936874</v>
+        <v>32527.066228589618</v>
       </c>
       <c r="AQ32" s="22">
         <f t="shared" si="0"/>
-        <v>31255.82774913474</v>
+        <v>32938.931780213592</v>
       </c>
       <c r="AR32" s="22">
         <f t="shared" si="0"/>
-        <v>31602.958530332617</v>
+        <v>33350.797331837573</v>
       </c>
       <c r="AS32" s="22">
         <f t="shared" si="0"/>
-        <v>31950.089311530472</v>
+        <v>33762.662883461548</v>
       </c>
       <c r="AT32" s="22">
         <f t="shared" si="0"/>
-        <v>32297.220092728348</v>
+        <v>34174.528435085536</v>
       </c>
       <c r="AU32" s="22">
         <f t="shared" si="0"/>
-        <v>32644.350873926211</v>
+        <v>34586.393986709511</v>
       </c>
       <c r="AV32" s="22">
         <f t="shared" si="0"/>
-        <v>32991.481655124073</v>
+        <v>34998.259538333485</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B35" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>9</v>
       </c>
@@ -40075,10 +40160,18 @@
         <f>SUM(G36-D36)/D36</f>
         <v>0.29824005073727622</v>
       </c>
+      <c r="I36" s="49">
+        <f>G36*B36</f>
+        <v>191622.82796892343</v>
+      </c>
+      <c r="J36" s="30">
+        <f>D36*B36</f>
+        <v>147602</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="42">
         <v>46</v>
@@ -40099,14 +40192,22 @@
       </c>
       <c r="G37" s="22">
         <f t="shared" ref="G37:G61" si="3">AV6</f>
-        <v>5062.9510494982542</v>
+        <v>5359.1020020718761</v>
       </c>
       <c r="H37" s="46">
         <f t="shared" ref="H37:H61" si="4">SUM(G37-D37)/D37</f>
-        <v>0.50661621842724058</v>
+        <v>0.59474383883832738</v>
+      </c>
+      <c r="I37" s="49">
+        <f t="shared" ref="I37:I61" si="5">G37*B37</f>
+        <v>246518.69209530629</v>
+      </c>
+      <c r="J37" s="30">
+        <f t="shared" ref="J37:J61" si="6">D37*B37</f>
+        <v>154582</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>13</v>
       </c>
@@ -40135,8 +40236,16 @@
         <f t="shared" si="4"/>
         <v>0.25780818709537107</v>
       </c>
+      <c r="I38" s="49">
+        <f t="shared" si="5"/>
+        <v>175800.07688575872</v>
+      </c>
+      <c r="J38" s="30">
+        <f t="shared" si="6"/>
+        <v>139767</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>15</v>
       </c>
@@ -40165,8 +40274,16 @@
         <f t="shared" si="4"/>
         <v>0.3843854244517762</v>
       </c>
+      <c r="I39" s="49">
+        <f t="shared" si="5"/>
+        <v>181668.74609453324</v>
+      </c>
+      <c r="J39" s="30">
+        <f t="shared" si="6"/>
+        <v>131227</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>17</v>
       </c>
@@ -40195,8 +40312,16 @@
         <f t="shared" si="4"/>
         <v>0.28439284434985956</v>
       </c>
+      <c r="I40" s="49">
+        <f t="shared" si="5"/>
+        <v>140340.46853073177</v>
+      </c>
+      <c r="J40" s="30">
+        <f t="shared" si="6"/>
+        <v>109266.00000000001</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
         <v>19</v>
       </c>
@@ -40225,8 +40350,16 @@
         <f t="shared" si="4"/>
         <v>0.39910028163988337</v>
       </c>
+      <c r="I41" s="49">
+        <f t="shared" si="5"/>
+        <v>274251.63720704993</v>
+      </c>
+      <c r="J41" s="30">
+        <f t="shared" si="6"/>
+        <v>196020</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -40255,8 +40388,16 @@
         <f t="shared" si="4"/>
         <v>0.22566830144366928</v>
       </c>
+      <c r="I42" s="49">
+        <f t="shared" si="5"/>
+        <v>214195.34102369277</v>
+      </c>
+      <c r="J42" s="30">
+        <f t="shared" si="6"/>
+        <v>174758</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>22</v>
       </c>
@@ -40285,8 +40426,16 @@
         <f t="shared" si="4"/>
         <v>0.14992766313865835</v>
       </c>
+      <c r="I43" s="49">
+        <f t="shared" si="5"/>
+        <v>109651.35231858677</v>
+      </c>
+      <c r="J43" s="30">
+        <f t="shared" si="6"/>
+        <v>95355</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>24</v>
       </c>
@@ -40315,8 +40464,16 @@
         <f t="shared" si="4"/>
         <v>0.25797445382843598</v>
       </c>
+      <c r="I44" s="49">
+        <f t="shared" si="5"/>
+        <v>87787.747260417396</v>
+      </c>
+      <c r="J44" s="30">
+        <f t="shared" si="6"/>
+        <v>69785</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>25</v>
       </c>
@@ -40339,14 +40496,22 @@
       </c>
       <c r="G45" s="22">
         <f t="shared" si="3"/>
-        <v>740.26975888849165</v>
+        <v>651.15435045397032</v>
       </c>
       <c r="H45" s="46">
         <f t="shared" si="4"/>
-        <v>1.0738288362853832</v>
+        <v>0.8241764608508515</v>
+      </c>
+      <c r="I45" s="49">
+        <f t="shared" si="5"/>
+        <v>309949.47081608989</v>
+      </c>
+      <c r="J45" s="30">
+        <f t="shared" si="6"/>
+        <v>169912</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>26</v>
       </c>
@@ -40375,8 +40540,16 @@
         <f t="shared" si="4"/>
         <v>0.36490656608949062</v>
       </c>
+      <c r="I46" s="49">
+        <f t="shared" si="5"/>
+        <v>382214.78570204007</v>
+      </c>
+      <c r="J46" s="30">
+        <f t="shared" si="6"/>
+        <v>280030</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>27</v>
       </c>
@@ -40405,8 +40578,16 @@
         <f t="shared" si="4"/>
         <v>0.26899563318777281</v>
       </c>
+      <c r="I47" s="49">
+        <f t="shared" si="5"/>
+        <v>104867.26113537117</v>
+      </c>
+      <c r="J47" s="30">
+        <f t="shared" si="6"/>
+        <v>82638</v>
+      </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>28</v>
       </c>
@@ -40429,14 +40610,22 @@
       </c>
       <c r="G48" s="22">
         <f t="shared" si="3"/>
-        <v>6492.0373867094777</v>
+        <v>8474.3899954278841</v>
       </c>
       <c r="H48" s="46">
         <f t="shared" si="4"/>
-        <v>0.30047614171616022</v>
+        <v>0.69757833299201044</v>
+      </c>
+      <c r="I48" s="49">
+        <f t="shared" si="5"/>
+        <v>364398.76980339899</v>
+      </c>
+      <c r="J48" s="30">
+        <f t="shared" si="6"/>
+        <v>214658.00000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>29</v>
       </c>
@@ -40459,14 +40648,22 @@
       </c>
       <c r="G49" s="22">
         <f t="shared" si="3"/>
-        <v>2065.4397117191384</v>
+        <v>1862.3875404750927</v>
       </c>
       <c r="H49" s="46">
         <f t="shared" si="4"/>
-        <v>1.3856851272281943</v>
+        <v>1.1511498163015377</v>
+      </c>
+      <c r="I49" s="49">
+        <f t="shared" si="5"/>
+        <v>575477.75000680366</v>
+      </c>
+      <c r="J49" s="30">
+        <f t="shared" si="6"/>
+        <v>267521</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>30</v>
       </c>
@@ -40495,8 +40692,16 @@
         <f t="shared" si="4"/>
         <v>0.49543359865940506</v>
       </c>
+      <c r="I50" s="49">
+        <f t="shared" si="5"/>
+        <v>337453.56413908669</v>
+      </c>
+      <c r="J50" s="30">
+        <f t="shared" si="6"/>
+        <v>225656</v>
+      </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
         <v>31</v>
       </c>
@@ -40525,8 +40730,16 @@
         <f t="shared" si="4"/>
         <v>0.27666955767562867</v>
       </c>
+      <c r="I51" s="49">
+        <f t="shared" si="5"/>
+        <v>116271.40329575021</v>
+      </c>
+      <c r="J51" s="30">
+        <f t="shared" si="6"/>
+        <v>91074</v>
+      </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>32</v>
       </c>
@@ -40555,8 +40768,16 @@
         <f t="shared" si="4"/>
         <v>0.2327571255130948</v>
       </c>
+      <c r="I52" s="49">
+        <f t="shared" si="5"/>
+        <v>97281.795802740351</v>
+      </c>
+      <c r="J52" s="30">
+        <f t="shared" si="6"/>
+        <v>78914</v>
+      </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>33</v>
       </c>
@@ -40585,8 +40806,16 @@
         <f t="shared" si="4"/>
         <v>0.5408217780907747</v>
       </c>
+      <c r="I53" s="49">
+        <f t="shared" si="5"/>
+        <v>306491.02316714835</v>
+      </c>
+      <c r="J53" s="30">
+        <f t="shared" si="6"/>
+        <v>198914</v>
+      </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>34</v>
       </c>
@@ -40615,8 +40844,16 @@
         <f t="shared" si="4"/>
         <v>0.36239001432371593</v>
       </c>
+      <c r="I54" s="49">
+        <f t="shared" si="5"/>
+        <v>136582.32371598115</v>
+      </c>
+      <c r="J54" s="30">
+        <f t="shared" si="6"/>
+        <v>100252</v>
+      </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>35</v>
       </c>
@@ -40645,8 +40882,16 @@
         <f t="shared" si="4"/>
         <v>0.47792706333973134</v>
       </c>
+      <c r="I55" s="49">
+        <f t="shared" si="5"/>
+        <v>102775.04798464492</v>
+      </c>
+      <c r="J55" s="30">
+        <f t="shared" si="6"/>
+        <v>69540</v>
+      </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>36</v>
       </c>
@@ -40675,8 +40920,16 @@
         <f t="shared" si="4"/>
         <v>0.29443374226908636</v>
       </c>
+      <c r="I56" s="49">
+        <f t="shared" si="5"/>
+        <v>120557.08658623137</v>
+      </c>
+      <c r="J56" s="30">
+        <f t="shared" si="6"/>
+        <v>93135</v>
+      </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>37</v>
       </c>
@@ -40705,8 +40958,16 @@
         <f t="shared" si="4"/>
         <v>0.29178444630379202</v>
       </c>
+      <c r="I57" s="49">
+        <f t="shared" si="5"/>
+        <v>130180.86936071096</v>
+      </c>
+      <c r="J57" s="30">
+        <f t="shared" si="6"/>
+        <v>100776</v>
+      </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>38</v>
       </c>
@@ -40735,8 +40996,16 @@
         <f t="shared" si="4"/>
         <v>0.9130880510308691</v>
       </c>
+      <c r="I58" s="49">
+        <f t="shared" si="5"/>
+        <v>238981.04624672516</v>
+      </c>
+      <c r="J58" s="30">
+        <f t="shared" si="6"/>
+        <v>124919</v>
+      </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>39</v>
       </c>
@@ -40765,8 +41034,16 @@
         <f t="shared" si="4"/>
         <v>0.26760109553729655</v>
       </c>
+      <c r="I59" s="49">
+        <f t="shared" si="5"/>
+        <v>112636.49814725311</v>
+      </c>
+      <c r="J59" s="30">
+        <f t="shared" si="6"/>
+        <v>88858</v>
+      </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>41</v>
       </c>
@@ -40795,8 +41072,16 @@
         <f t="shared" si="4"/>
         <v>0.29575326595022178</v>
       </c>
+      <c r="I60" s="49">
+        <f t="shared" si="5"/>
+        <v>229321.11725460429</v>
+      </c>
+      <c r="J60" s="30">
+        <f t="shared" si="6"/>
+        <v>176979</v>
+      </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
         <v>43</v>
       </c>
@@ -40819,14 +41104,32 @@
       </c>
       <c r="G61" s="22">
         <f t="shared" si="3"/>
-        <v>258.35883783648666</v>
+        <v>278.80073943242883</v>
       </c>
       <c r="H61" s="46">
         <f t="shared" si="4"/>
-        <v>0.48712339573409258</v>
+        <v>0.60478776661913036</v>
+      </c>
+      <c r="I61" s="49">
+        <f t="shared" si="5"/>
+        <v>251478.2669680508</v>
+      </c>
+      <c r="J61" s="30">
+        <f t="shared" si="6"/>
+        <v>156705</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I62" s="49">
+        <f>SUM(I36:I61)</f>
+        <v>5538754.9695176315</v>
+      </c>
+      <c r="J62" s="49">
+        <f>SUM(J36:J61)</f>
+        <v>3738843</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E63" s="12">
         <v>1552330</v>
       </c>
@@ -40855,17 +41158,17 @@
   <sheetData>
     <row r="1" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="17">
         <v>2004</v>
@@ -41190,7 +41493,7 @@
     </row>
     <row r="6" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="39">
         <v>74900</v>
@@ -41244,127 +41547,127 @@
       </c>
       <c r="R6" s="22">
         <f>SUM(Q6+('Projection Expansion data'!R6-'Projection Expansion data'!Q6)*'Baseline data'!$H5)</f>
-        <v>98941.707737955338</v>
+        <v>99192.793455582883</v>
       </c>
       <c r="S6" s="22">
         <f>SUM(R6+('Projection Expansion data'!S6-'Projection Expansion data'!R6)*'Baseline data'!$H5)</f>
-        <v>100358.50556428058</v>
+        <v>100860.67699953567</v>
       </c>
       <c r="T6" s="22">
         <f>SUM(S6+('Projection Expansion data'!T6-'Projection Expansion data'!S6)*'Baseline data'!$H5)</f>
-        <v>101775.30339060583</v>
+        <v>102528.56054348846</v>
       </c>
       <c r="U6" s="22">
         <f>SUM(T6+('Projection Expansion data'!U6-'Projection Expansion data'!T6)*'Baseline data'!$H5)</f>
-        <v>103192.10121693107</v>
+        <v>104196.44408744125</v>
       </c>
       <c r="V6" s="22">
         <f>SUM(U6+('Projection Expansion data'!V6-'Projection Expansion data'!U6)*'Baseline data'!$H5)</f>
-        <v>104608.89904325632</v>
+        <v>105864.32763139404</v>
       </c>
       <c r="W6" s="22">
         <f>SUM(V6+('Projection Expansion data'!W6-'Projection Expansion data'!V6)*'Baseline data'!$H5)</f>
-        <v>106025.69686958156</v>
+        <v>107532.21117534683</v>
       </c>
       <c r="X6" s="22">
         <f>SUM(W6+('Projection Expansion data'!X6-'Projection Expansion data'!W6)*'Baseline data'!$H5)</f>
-        <v>107442.4946959068</v>
+        <v>109200.09471929962</v>
       </c>
       <c r="Y6" s="22">
         <f>SUM(X6+('Projection Expansion data'!Y6-'Projection Expansion data'!X6)*'Baseline data'!$H5)</f>
-        <v>108859.29252223205</v>
+        <v>110867.97826325241</v>
       </c>
       <c r="Z6" s="22">
         <f>SUM(Y6+('Projection Expansion data'!Z6-'Projection Expansion data'!Y6)*'Baseline data'!$H5)</f>
-        <v>110276.09034855729</v>
+        <v>112535.8618072052</v>
       </c>
       <c r="AA6" s="22">
         <f>SUM(Z6+('Projection Expansion data'!AA6-'Projection Expansion data'!Z6)*'Baseline data'!$H5)</f>
-        <v>111692.88817488254</v>
+        <v>114203.745351158</v>
       </c>
       <c r="AB6" s="22">
         <f>SUM(AA6+('Projection Expansion data'!AB6-'Projection Expansion data'!AA6)*'Baseline data'!$H5)</f>
-        <v>113109.68600120778</v>
+        <v>115871.62889511079</v>
       </c>
       <c r="AC6" s="22">
         <f>SUM(AB6+('Projection Expansion data'!AC6-'Projection Expansion data'!AB6)*'Baseline data'!$H5)</f>
-        <v>114526.48382753303</v>
+        <v>117539.51243906358</v>
       </c>
       <c r="AD6" s="22">
         <f>SUM(AC6+('Projection Expansion data'!AD6-'Projection Expansion data'!AC6)*'Baseline data'!$H5)</f>
-        <v>115943.28165385827</v>
+        <v>119207.39598301637</v>
       </c>
       <c r="AE6" s="22">
         <f>SUM(AD6+('Projection Expansion data'!AE6-'Projection Expansion data'!AD6)*'Baseline data'!$H5)</f>
-        <v>117360.07948018351</v>
+        <v>120875.27952696916</v>
       </c>
       <c r="AF6" s="22">
         <f>SUM(AE6+('Projection Expansion data'!AF6-'Projection Expansion data'!AE6)*'Baseline data'!$H5)</f>
-        <v>118776.87730650876</v>
+        <v>122543.16307092195</v>
       </c>
       <c r="AG6" s="22">
         <f>SUM(AF6+('Projection Expansion data'!AG6-'Projection Expansion data'!AF6)*'Baseline data'!$H5)</f>
-        <v>120193.675132834</v>
+        <v>124211.04661487474</v>
       </c>
       <c r="AH6" s="22">
         <f>SUM(AG6+('Projection Expansion data'!AH6-'Projection Expansion data'!AG6)*'Baseline data'!$H5)</f>
-        <v>121610.47295915925</v>
+        <v>125878.93015882753</v>
       </c>
       <c r="AI6" s="22">
         <f>SUM(AH6+('Projection Expansion data'!AI6-'Projection Expansion data'!AH6)*'Baseline data'!$H5)</f>
-        <v>123027.27078548449</v>
+        <v>127546.81370278032</v>
       </c>
       <c r="AJ6" s="22">
         <f>SUM(AI6+('Projection Expansion data'!AJ6-'Projection Expansion data'!AI6)*'Baseline data'!$H5)</f>
-        <v>124444.06861180974</v>
+        <v>129214.69724673311</v>
       </c>
       <c r="AK6" s="22">
         <f>SUM(AJ6+('Projection Expansion data'!AK6-'Projection Expansion data'!AJ6)*'Baseline data'!$H5)</f>
-        <v>125860.86643813498</v>
+        <v>130882.5807906859</v>
       </c>
       <c r="AL6" s="22">
         <f>SUM(AK6+('Projection Expansion data'!AL6-'Projection Expansion data'!AK6)*'Baseline data'!$H5)</f>
-        <v>127277.66426446023</v>
+        <v>132550.4643346387</v>
       </c>
       <c r="AM6" s="22">
         <f>SUM(AL6+('Projection Expansion data'!AM6-'Projection Expansion data'!AL6)*'Baseline data'!$H5)</f>
-        <v>128694.46209078547</v>
+        <v>134218.34787859151</v>
       </c>
       <c r="AN6" s="22">
         <f>SUM(AM6+('Projection Expansion data'!AN6-'Projection Expansion data'!AM6)*'Baseline data'!$H5)</f>
-        <v>130111.25991711071</v>
+        <v>135886.23142254431</v>
       </c>
       <c r="AO6" s="22">
         <f>SUM(AN6+('Projection Expansion data'!AO6-'Projection Expansion data'!AN6)*'Baseline data'!$H5)</f>
-        <v>131528.05774343596</v>
+        <v>137554.11496649712</v>
       </c>
       <c r="AP6" s="22">
         <f>SUM(AO6+('Projection Expansion data'!AP6-'Projection Expansion data'!AO6)*'Baseline data'!$H5)</f>
-        <v>132944.85556976119</v>
+        <v>139221.99851044992</v>
       </c>
       <c r="AQ6" s="22">
         <f>SUM(AP6+('Projection Expansion data'!AQ6-'Projection Expansion data'!AP6)*'Baseline data'!$H5)</f>
-        <v>134361.65339608642</v>
+        <v>140889.88205440273</v>
       </c>
       <c r="AR6" s="22">
         <f>SUM(AQ6+('Projection Expansion data'!AR6-'Projection Expansion data'!AQ6)*'Baseline data'!$H5)</f>
-        <v>135778.45122241165</v>
+        <v>142557.76559835553</v>
       </c>
       <c r="AS6" s="22">
         <f>SUM(AR6+('Projection Expansion data'!AS6-'Projection Expansion data'!AR6)*'Baseline data'!$H5)</f>
-        <v>137195.24904873688</v>
+        <v>144225.64914230834</v>
       </c>
       <c r="AT6" s="22">
         <f>SUM(AS6+('Projection Expansion data'!AT6-'Projection Expansion data'!AS6)*'Baseline data'!$H5)</f>
-        <v>138612.04687506211</v>
+        <v>145893.53268626114</v>
       </c>
       <c r="AU6" s="22">
         <f>SUM(AT6+('Projection Expansion data'!AU6-'Projection Expansion data'!AT6)*'Baseline data'!$H5)</f>
-        <v>140028.84470138734</v>
+        <v>147561.41623021394</v>
       </c>
       <c r="AV6" s="22">
         <f>SUM(AU6+('Projection Expansion data'!AV6-'Projection Expansion data'!AU6)*'Baseline data'!$H5)</f>
-        <v>141445.64252771257</v>
+        <v>149229.29977416675</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -42676,127 +42979,127 @@
       </c>
       <c r="R14" s="22">
         <f>SUM(Q14+('Projection Expansion data'!R14-'Projection Expansion data'!Q14)*'Baseline data'!$H13)</f>
-        <v>94924.128854917435</v>
+        <v>94198.83547571348</v>
       </c>
       <c r="S14" s="22">
         <f>SUM(R14+('Projection Expansion data'!S14-'Projection Expansion data'!R14)*'Baseline data'!$H13)</f>
-        <v>97980.349671706965</v>
+        <v>96529.762913299055</v>
       </c>
       <c r="T14" s="22">
         <f>SUM(S14+('Projection Expansion data'!T14-'Projection Expansion data'!S14)*'Baseline data'!$H13)</f>
-        <v>101036.57048849649</v>
+        <v>98860.69035088463</v>
       </c>
       <c r="U14" s="22">
         <f>SUM(T14+('Projection Expansion data'!U14-'Projection Expansion data'!T14)*'Baseline data'!$H13)</f>
-        <v>104092.79130528602</v>
+        <v>101191.6177884702</v>
       </c>
       <c r="V14" s="22">
         <f>SUM(U14+('Projection Expansion data'!V14-'Projection Expansion data'!U14)*'Baseline data'!$H13)</f>
-        <v>107149.01212207555</v>
+        <v>103522.54522605578</v>
       </c>
       <c r="W14" s="22">
         <f>SUM(V14+('Projection Expansion data'!W14-'Projection Expansion data'!V14)*'Baseline data'!$H13)</f>
-        <v>110205.23293886508</v>
+        <v>105853.47266364135</v>
       </c>
       <c r="X14" s="22">
         <f>SUM(W14+('Projection Expansion data'!X14-'Projection Expansion data'!W14)*'Baseline data'!$H13)</f>
-        <v>113261.45375565461</v>
+        <v>108184.40010122693</v>
       </c>
       <c r="Y14" s="22">
         <f>SUM(X14+('Projection Expansion data'!Y14-'Projection Expansion data'!X14)*'Baseline data'!$H13)</f>
-        <v>116317.67457244414</v>
+        <v>110515.3275388125</v>
       </c>
       <c r="Z14" s="22">
         <f>SUM(Y14+('Projection Expansion data'!Z14-'Projection Expansion data'!Y14)*'Baseline data'!$H13)</f>
-        <v>119373.89538923367</v>
+        <v>112846.25497639808</v>
       </c>
       <c r="AA14" s="22">
         <f>SUM(Z14+('Projection Expansion data'!AA14-'Projection Expansion data'!Z14)*'Baseline data'!$H13)</f>
-        <v>122430.1162060232</v>
+        <v>115177.18241398365</v>
       </c>
       <c r="AB14" s="22">
         <f>SUM(AA14+('Projection Expansion data'!AB14-'Projection Expansion data'!AA14)*'Baseline data'!$H13)</f>
-        <v>125486.33702281273</v>
+        <v>117508.10985156923</v>
       </c>
       <c r="AC14" s="22">
         <f>SUM(AB14+('Projection Expansion data'!AC14-'Projection Expansion data'!AB14)*'Baseline data'!$H13)</f>
-        <v>128542.55783960226</v>
+        <v>119839.0372891548</v>
       </c>
       <c r="AD14" s="22">
         <f>SUM(AC14+('Projection Expansion data'!AD14-'Projection Expansion data'!AC14)*'Baseline data'!$H13)</f>
-        <v>131598.77865639181</v>
+        <v>122169.96472674038</v>
       </c>
       <c r="AE14" s="22">
         <f>SUM(AD14+('Projection Expansion data'!AE14-'Projection Expansion data'!AD14)*'Baseline data'!$H13)</f>
-        <v>134654.99947318135</v>
+        <v>124500.89216432595</v>
       </c>
       <c r="AF14" s="22">
         <f>SUM(AE14+('Projection Expansion data'!AF14-'Projection Expansion data'!AE14)*'Baseline data'!$H13)</f>
-        <v>137711.22028997089</v>
+        <v>126831.81960191153</v>
       </c>
       <c r="AG14" s="22">
         <f>SUM(AF14+('Projection Expansion data'!AG14-'Projection Expansion data'!AF14)*'Baseline data'!$H13)</f>
-        <v>140767.44110676044</v>
+        <v>129162.7470394971</v>
       </c>
       <c r="AH14" s="22">
         <f>SUM(AG14+('Projection Expansion data'!AH14-'Projection Expansion data'!AG14)*'Baseline data'!$H13)</f>
-        <v>143823.66192354998</v>
+        <v>131493.67447708268</v>
       </c>
       <c r="AI14" s="22">
         <f>SUM(AH14+('Projection Expansion data'!AI14-'Projection Expansion data'!AH14)*'Baseline data'!$H13)</f>
-        <v>146879.88274033953</v>
+        <v>133824.60191466825</v>
       </c>
       <c r="AJ14" s="22">
         <f>SUM(AI14+('Projection Expansion data'!AJ14-'Projection Expansion data'!AI14)*'Baseline data'!$H13)</f>
-        <v>149936.10355712907</v>
+        <v>136155.52935225383</v>
       </c>
       <c r="AK14" s="22">
         <f>SUM(AJ14+('Projection Expansion data'!AK14-'Projection Expansion data'!AJ14)*'Baseline data'!$H13)</f>
-        <v>152992.32437391861</v>
+        <v>138486.4567898394</v>
       </c>
       <c r="AL14" s="22">
         <f>SUM(AK14+('Projection Expansion data'!AL14-'Projection Expansion data'!AK14)*'Baseline data'!$H13)</f>
-        <v>156048.54519070816</v>
+        <v>140817.38422742498</v>
       </c>
       <c r="AM14" s="22">
         <f>SUM(AL14+('Projection Expansion data'!AM14-'Projection Expansion data'!AL14)*'Baseline data'!$H13)</f>
-        <v>159104.7660074977</v>
+        <v>143148.31166501055</v>
       </c>
       <c r="AN14" s="22">
         <f>SUM(AM14+('Projection Expansion data'!AN14-'Projection Expansion data'!AM14)*'Baseline data'!$H13)</f>
-        <v>162160.98682428725</v>
+        <v>145479.23910259613</v>
       </c>
       <c r="AO14" s="22">
         <f>SUM(AN14+('Projection Expansion data'!AO14-'Projection Expansion data'!AN14)*'Baseline data'!$H13)</f>
-        <v>165217.20764107679</v>
+        <v>147810.1665401817</v>
       </c>
       <c r="AP14" s="22">
         <f>SUM(AO14+('Projection Expansion data'!AP14-'Projection Expansion data'!AO14)*'Baseline data'!$H13)</f>
-        <v>168273.42845786634</v>
+        <v>150141.09397776728</v>
       </c>
       <c r="AQ14" s="22">
         <f>SUM(AP14+('Projection Expansion data'!AQ14-'Projection Expansion data'!AP14)*'Baseline data'!$H13)</f>
-        <v>171329.64927465588</v>
+        <v>152472.02141535285</v>
       </c>
       <c r="AR14" s="22">
         <f>SUM(AQ14+('Projection Expansion data'!AR14-'Projection Expansion data'!AQ14)*'Baseline data'!$H13)</f>
-        <v>174385.87009144542</v>
+        <v>154802.94885293843</v>
       </c>
       <c r="AS14" s="22">
         <f>SUM(AR14+('Projection Expansion data'!AS14-'Projection Expansion data'!AR14)*'Baseline data'!$H13)</f>
-        <v>177442.09090823497</v>
+        <v>157133.876290524</v>
       </c>
       <c r="AT14" s="22">
         <f>SUM(AS14+('Projection Expansion data'!AT14-'Projection Expansion data'!AS14)*'Baseline data'!$H13)</f>
-        <v>180498.31172502451</v>
+        <v>159464.80372810957</v>
       </c>
       <c r="AU14" s="22">
         <f>SUM(AT14+('Projection Expansion data'!AU14-'Projection Expansion data'!AT14)*'Baseline data'!$H13)</f>
-        <v>183554.53254181406</v>
+        <v>161795.73116569515</v>
       </c>
       <c r="AV14" s="22">
         <f>SUM(AU14+('Projection Expansion data'!AV14-'Projection Expansion data'!AU14)*'Baseline data'!$H13)</f>
-        <v>186610.7533586036</v>
+        <v>164126.65860328075</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -43213,127 +43516,127 @@
       </c>
       <c r="R17" s="22">
         <f>SUM(Q17+('Projection Expansion data'!R17-'Projection Expansion data'!Q17)*'Baseline data'!$H16)</f>
-        <v>113167.79313889894</v>
+        <v>114456.98361638653</v>
       </c>
       <c r="S17" s="22">
         <f>SUM(R17+('Projection Expansion data'!S17-'Projection Expansion data'!R17)*'Baseline data'!$H16)</f>
-        <v>114110.21095797361</v>
+        <v>116688.59191294879</v>
       </c>
       <c r="T17" s="22">
         <f>SUM(S17+('Projection Expansion data'!T17-'Projection Expansion data'!S17)*'Baseline data'!$H16)</f>
-        <v>115052.62877704829</v>
+        <v>118920.20020951105</v>
       </c>
       <c r="U17" s="22">
         <f>SUM(T17+('Projection Expansion data'!U17-'Projection Expansion data'!T17)*'Baseline data'!$H16)</f>
-        <v>115995.04659612296</v>
+        <v>121151.80850607331</v>
       </c>
       <c r="V17" s="22">
         <f>SUM(U17+('Projection Expansion data'!V17-'Projection Expansion data'!U17)*'Baseline data'!$H16)</f>
-        <v>116937.46441519764</v>
+        <v>123383.41680263558</v>
       </c>
       <c r="W17" s="22">
         <f>SUM(V17+('Projection Expansion data'!W17-'Projection Expansion data'!V17)*'Baseline data'!$H16)</f>
-        <v>117879.88223427231</v>
+        <v>125615.02509919784</v>
       </c>
       <c r="X17" s="22">
         <f>SUM(W17+('Projection Expansion data'!X17-'Projection Expansion data'!W17)*'Baseline data'!$H16)</f>
-        <v>118822.30005334699</v>
+        <v>127846.6333957601</v>
       </c>
       <c r="Y17" s="22">
         <f>SUM(X17+('Projection Expansion data'!Y17-'Projection Expansion data'!X17)*'Baseline data'!$H16)</f>
-        <v>119764.71787242166</v>
+        <v>130078.24169232236</v>
       </c>
       <c r="Z17" s="22">
         <f>SUM(Y17+('Projection Expansion data'!Z17-'Projection Expansion data'!Y17)*'Baseline data'!$H16)</f>
-        <v>120707.13569149634</v>
+        <v>132309.84998888461</v>
       </c>
       <c r="AA17" s="22">
         <f>SUM(Z17+('Projection Expansion data'!AA17-'Projection Expansion data'!Z17)*'Baseline data'!$H16)</f>
-        <v>121649.55351057102</v>
+        <v>134541.45828544686</v>
       </c>
       <c r="AB17" s="22">
         <f>SUM(AA17+('Projection Expansion data'!AB17-'Projection Expansion data'!AA17)*'Baseline data'!$H16)</f>
-        <v>122591.97132964569</v>
+        <v>136773.06658200911</v>
       </c>
       <c r="AC17" s="22">
         <f>SUM(AB17+('Projection Expansion data'!AC17-'Projection Expansion data'!AB17)*'Baseline data'!$H16)</f>
-        <v>123534.38914872037</v>
+        <v>139004.67487857136</v>
       </c>
       <c r="AD17" s="22">
         <f>SUM(AC17+('Projection Expansion data'!AD17-'Projection Expansion data'!AC17)*'Baseline data'!$H16)</f>
-        <v>124476.80696779504</v>
+        <v>141236.28317513361</v>
       </c>
       <c r="AE17" s="22">
         <f>SUM(AD17+('Projection Expansion data'!AE17-'Projection Expansion data'!AD17)*'Baseline data'!$H16)</f>
-        <v>125419.22478686972</v>
+        <v>143467.89147169585</v>
       </c>
       <c r="AF17" s="22">
         <f>SUM(AE17+('Projection Expansion data'!AF17-'Projection Expansion data'!AE17)*'Baseline data'!$H16)</f>
-        <v>126361.64260594439</v>
+        <v>145699.4997682581</v>
       </c>
       <c r="AG17" s="22">
         <f>SUM(AF17+('Projection Expansion data'!AG17-'Projection Expansion data'!AF17)*'Baseline data'!$H16)</f>
-        <v>127304.06042501907</v>
+        <v>147931.10806482035</v>
       </c>
       <c r="AH17" s="22">
         <f>SUM(AG17+('Projection Expansion data'!AH17-'Projection Expansion data'!AG17)*'Baseline data'!$H16)</f>
-        <v>128246.47824409374</v>
+        <v>150162.7163613826</v>
       </c>
       <c r="AI17" s="22">
         <f>SUM(AH17+('Projection Expansion data'!AI17-'Projection Expansion data'!AH17)*'Baseline data'!$H16)</f>
-        <v>129188.89606316842</v>
+        <v>152394.32465794485</v>
       </c>
       <c r="AJ17" s="22">
         <f>SUM(AI17+('Projection Expansion data'!AJ17-'Projection Expansion data'!AI17)*'Baseline data'!$H16)</f>
-        <v>130131.31388224309</v>
+        <v>154625.93295450709</v>
       </c>
       <c r="AK17" s="22">
         <f>SUM(AJ17+('Projection Expansion data'!AK17-'Projection Expansion data'!AJ17)*'Baseline data'!$H16)</f>
-        <v>131073.73170131777</v>
+        <v>156857.54125106934</v>
       </c>
       <c r="AL17" s="22">
         <f>SUM(AK17+('Projection Expansion data'!AL17-'Projection Expansion data'!AK17)*'Baseline data'!$H16)</f>
-        <v>132016.14952039244</v>
+        <v>159089.14954763159</v>
       </c>
       <c r="AM17" s="22">
         <f>SUM(AL17+('Projection Expansion data'!AM17-'Projection Expansion data'!AL17)*'Baseline data'!$H16)</f>
-        <v>132958.56733946712</v>
+        <v>161320.75784419384</v>
       </c>
       <c r="AN17" s="22">
         <f>SUM(AM17+('Projection Expansion data'!AN17-'Projection Expansion data'!AM17)*'Baseline data'!$H16)</f>
-        <v>133900.98515854179</v>
+        <v>163552.36614075609</v>
       </c>
       <c r="AO17" s="22">
         <f>SUM(AN17+('Projection Expansion data'!AO17-'Projection Expansion data'!AN17)*'Baseline data'!$H16)</f>
-        <v>134843.40297761647</v>
+        <v>165783.97443731833</v>
       </c>
       <c r="AP17" s="22">
         <f>SUM(AO17+('Projection Expansion data'!AP17-'Projection Expansion data'!AO17)*'Baseline data'!$H16)</f>
-        <v>135785.82079669114</v>
+        <v>168015.58273388058</v>
       </c>
       <c r="AQ17" s="22">
         <f>SUM(AP17+('Projection Expansion data'!AQ17-'Projection Expansion data'!AP17)*'Baseline data'!$H16)</f>
-        <v>136728.23861576582</v>
+        <v>170247.19103044283</v>
       </c>
       <c r="AR17" s="22">
         <f>SUM(AQ17+('Projection Expansion data'!AR17-'Projection Expansion data'!AQ17)*'Baseline data'!$H16)</f>
-        <v>137670.65643484049</v>
+        <v>172478.79932700508</v>
       </c>
       <c r="AS17" s="22">
         <f>SUM(AR17+('Projection Expansion data'!AS17-'Projection Expansion data'!AR17)*'Baseline data'!$H16)</f>
-        <v>138613.07425391517</v>
+        <v>174710.40762356733</v>
       </c>
       <c r="AT17" s="22">
         <f>SUM(AS17+('Projection Expansion data'!AT17-'Projection Expansion data'!AS17)*'Baseline data'!$H16)</f>
-        <v>139555.49207298984</v>
+        <v>176942.01592012958</v>
       </c>
       <c r="AU17" s="22">
         <f>SUM(AT17+('Projection Expansion data'!AU17-'Projection Expansion data'!AT17)*'Baseline data'!$H16)</f>
-        <v>140497.90989206452</v>
+        <v>179173.62421669182</v>
       </c>
       <c r="AV17" s="22">
         <f>SUM(AU17+('Projection Expansion data'!AV17-'Projection Expansion data'!AU17)*'Baseline data'!$H16)</f>
-        <v>141440.32771113919</v>
+        <v>181405.23251325407</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -43392,127 +43695,127 @@
       </c>
       <c r="R18" s="22">
         <f>SUM(Q18+('Projection Expansion data'!R18-'Projection Expansion data'!Q18)*'Baseline data'!$H17)</f>
-        <v>152585.77392091753</v>
+        <v>151488.9403382497</v>
       </c>
       <c r="S18" s="22">
         <f>SUM(R18+('Projection Expansion data'!S18-'Projection Expansion data'!R18)*'Baseline data'!$H17)</f>
-        <v>158939.25478167098</v>
+        <v>156745.58761633531</v>
       </c>
       <c r="T18" s="22">
         <f>SUM(S18+('Projection Expansion data'!T18-'Projection Expansion data'!S18)*'Baseline data'!$H17)</f>
-        <v>165292.73564242444</v>
+        <v>162002.23489442092</v>
       </c>
       <c r="U18" s="22">
         <f>SUM(T18+('Projection Expansion data'!U18-'Projection Expansion data'!T18)*'Baseline data'!$H17)</f>
-        <v>171646.21650317789</v>
+        <v>167258.88217250654</v>
       </c>
       <c r="V18" s="22">
         <f>SUM(U18+('Projection Expansion data'!V18-'Projection Expansion data'!U18)*'Baseline data'!$H17)</f>
-        <v>177999.69736393134</v>
+        <v>172515.52945059215</v>
       </c>
       <c r="W18" s="22">
         <f>SUM(V18+('Projection Expansion data'!W18-'Projection Expansion data'!V18)*'Baseline data'!$H17)</f>
-        <v>184353.17822468479</v>
+        <v>177772.17672867776</v>
       </c>
       <c r="X18" s="22">
         <f>SUM(W18+('Projection Expansion data'!X18-'Projection Expansion data'!W18)*'Baseline data'!$H17)</f>
-        <v>190706.65908543824</v>
+        <v>183028.82400676337</v>
       </c>
       <c r="Y18" s="22">
         <f>SUM(X18+('Projection Expansion data'!Y18-'Projection Expansion data'!X18)*'Baseline data'!$H17)</f>
-        <v>197060.13994619169</v>
+        <v>188285.47128484899</v>
       </c>
       <c r="Z18" s="22">
         <f>SUM(Y18+('Projection Expansion data'!Z18-'Projection Expansion data'!Y18)*'Baseline data'!$H17)</f>
-        <v>203413.62080694514</v>
+        <v>193542.1185629346</v>
       </c>
       <c r="AA18" s="22">
         <f>SUM(Z18+('Projection Expansion data'!AA18-'Projection Expansion data'!Z18)*'Baseline data'!$H17)</f>
-        <v>209767.10166769859</v>
+        <v>198798.76584102021</v>
       </c>
       <c r="AB18" s="22">
         <f>SUM(AA18+('Projection Expansion data'!AB18-'Projection Expansion data'!AA18)*'Baseline data'!$H17)</f>
-        <v>216120.58252845204</v>
+        <v>204055.41311910583</v>
       </c>
       <c r="AC18" s="22">
         <f>SUM(AB18+('Projection Expansion data'!AC18-'Projection Expansion data'!AB18)*'Baseline data'!$H17)</f>
-        <v>222474.06338920549</v>
+        <v>209312.06039719144</v>
       </c>
       <c r="AD18" s="22">
         <f>SUM(AC18+('Projection Expansion data'!AD18-'Projection Expansion data'!AC18)*'Baseline data'!$H17)</f>
-        <v>228827.54424995894</v>
+        <v>214568.70767527705</v>
       </c>
       <c r="AE18" s="22">
         <f>SUM(AD18+('Projection Expansion data'!AE18-'Projection Expansion data'!AD18)*'Baseline data'!$H17)</f>
-        <v>235181.02511071239</v>
+        <v>219825.35495336266</v>
       </c>
       <c r="AF18" s="22">
         <f>SUM(AE18+('Projection Expansion data'!AF18-'Projection Expansion data'!AE18)*'Baseline data'!$H17)</f>
-        <v>241534.50597146584</v>
+        <v>225082.00223144828</v>
       </c>
       <c r="AG18" s="22">
         <f>SUM(AF18+('Projection Expansion data'!AG18-'Projection Expansion data'!AF18)*'Baseline data'!$H17)</f>
-        <v>247887.98683221929</v>
+        <v>230338.64950953389</v>
       </c>
       <c r="AH18" s="22">
         <f>SUM(AG18+('Projection Expansion data'!AH18-'Projection Expansion data'!AG18)*'Baseline data'!$H17)</f>
-        <v>254241.46769297274</v>
+        <v>235595.2967876195</v>
       </c>
       <c r="AI18" s="22">
         <f>SUM(AH18+('Projection Expansion data'!AI18-'Projection Expansion data'!AH18)*'Baseline data'!$H17)</f>
-        <v>260594.94855372619</v>
+        <v>240851.94406570512</v>
       </c>
       <c r="AJ18" s="22">
         <f>SUM(AI18+('Projection Expansion data'!AJ18-'Projection Expansion data'!AI18)*'Baseline data'!$H17)</f>
-        <v>266948.42941447964</v>
+        <v>246108.59134379073</v>
       </c>
       <c r="AK18" s="22">
         <f>SUM(AJ18+('Projection Expansion data'!AK18-'Projection Expansion data'!AJ18)*'Baseline data'!$H17)</f>
-        <v>273301.91027523309</v>
+        <v>251365.23862187634</v>
       </c>
       <c r="AL18" s="22">
         <f>SUM(AK18+('Projection Expansion data'!AL18-'Projection Expansion data'!AK18)*'Baseline data'!$H17)</f>
-        <v>279655.39113598655</v>
+        <v>256621.88589996196</v>
       </c>
       <c r="AM18" s="22">
         <f>SUM(AL18+('Projection Expansion data'!AM18-'Projection Expansion data'!AL18)*'Baseline data'!$H17)</f>
-        <v>286008.87199674</v>
+        <v>261878.53317804757</v>
       </c>
       <c r="AN18" s="22">
         <f>SUM(AM18+('Projection Expansion data'!AN18-'Projection Expansion data'!AM18)*'Baseline data'!$H17)</f>
-        <v>292362.35285749345</v>
+        <v>267135.18045613315</v>
       </c>
       <c r="AO18" s="22">
         <f>SUM(AN18+('Projection Expansion data'!AO18-'Projection Expansion data'!AN18)*'Baseline data'!$H17)</f>
-        <v>298715.8337182469</v>
+        <v>272391.82773421874</v>
       </c>
       <c r="AP18" s="22">
         <f>SUM(AO18+('Projection Expansion data'!AP18-'Projection Expansion data'!AO18)*'Baseline data'!$H17)</f>
-        <v>305069.31457900035</v>
+        <v>277648.47501230432</v>
       </c>
       <c r="AQ18" s="22">
         <f>SUM(AP18+('Projection Expansion data'!AQ18-'Projection Expansion data'!AP18)*'Baseline data'!$H17)</f>
-        <v>311422.7954397538</v>
+        <v>282905.1222903899</v>
       </c>
       <c r="AR18" s="22">
         <f>SUM(AQ18+('Projection Expansion data'!AR18-'Projection Expansion data'!AQ18)*'Baseline data'!$H17)</f>
-        <v>317776.27630050725</v>
+        <v>288161.76956847549</v>
       </c>
       <c r="AS18" s="22">
         <f>SUM(AR18+('Projection Expansion data'!AS18-'Projection Expansion data'!AR18)*'Baseline data'!$H17)</f>
-        <v>324129.7571612607</v>
+        <v>293418.41684656107</v>
       </c>
       <c r="AT18" s="22">
         <f>SUM(AS18+('Projection Expansion data'!AT18-'Projection Expansion data'!AS18)*'Baseline data'!$H17)</f>
-        <v>330483.23802201415</v>
+        <v>298675.06412464665</v>
       </c>
       <c r="AU18" s="22">
         <f>SUM(AT18+('Projection Expansion data'!AU18-'Projection Expansion data'!AT18)*'Baseline data'!$H17)</f>
-        <v>336836.7188827676</v>
+        <v>303931.71140273224</v>
       </c>
       <c r="AV18" s="22">
         <f>SUM(AU18+('Projection Expansion data'!AV18-'Projection Expansion data'!AU18)*'Baseline data'!$H17)</f>
-        <v>343190.19974352105</v>
+        <v>309188.35868081782</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -45540,127 +45843,127 @@
       </c>
       <c r="R30" s="22">
         <f>SUM(Q30+('Projection Expansion data'!R30-'Projection Expansion data'!Q30)*'Baseline data'!$H29)</f>
-        <v>89403.878868814296</v>
+        <v>89729.181398226414</v>
       </c>
       <c r="S30" s="22">
         <f>SUM(R30+('Projection Expansion data'!S30-'Projection Expansion data'!R30)*'Baseline data'!$H29)</f>
-        <v>90688.706844693806</v>
+        <v>91339.311903518043</v>
       </c>
       <c r="T30" s="22">
         <f>SUM(S30+('Projection Expansion data'!T30-'Projection Expansion data'!S30)*'Baseline data'!$H29)</f>
-        <v>91973.534820573317</v>
+        <v>92949.442408809671</v>
       </c>
       <c r="U30" s="22">
         <f>SUM(T30+('Projection Expansion data'!U30-'Projection Expansion data'!T30)*'Baseline data'!$H29)</f>
-        <v>93258.362796452828</v>
+        <v>94559.5729141013</v>
       </c>
       <c r="V30" s="22">
         <f>SUM(U30+('Projection Expansion data'!V30-'Projection Expansion data'!U30)*'Baseline data'!$H29)</f>
-        <v>94543.190772332338</v>
+        <v>96169.703419392928</v>
       </c>
       <c r="W30" s="22">
         <f>SUM(V30+('Projection Expansion data'!W30-'Projection Expansion data'!V30)*'Baseline data'!$H29)</f>
-        <v>95828.018748211849</v>
+        <v>97779.833924684557</v>
       </c>
       <c r="X30" s="22">
         <f>SUM(W30+('Projection Expansion data'!X30-'Projection Expansion data'!W30)*'Baseline data'!$H29)</f>
-        <v>97112.84672409136</v>
+        <v>99389.964429976186</v>
       </c>
       <c r="Y30" s="22">
         <f>SUM(X30+('Projection Expansion data'!Y30-'Projection Expansion data'!X30)*'Baseline data'!$H29)</f>
-        <v>98397.67469997087</v>
+        <v>101000.09493526781</v>
       </c>
       <c r="Z30" s="22">
         <f>SUM(Y30+('Projection Expansion data'!Z30-'Projection Expansion data'!Y30)*'Baseline data'!$H29)</f>
-        <v>99682.502675850381</v>
+        <v>102610.22544055944</v>
       </c>
       <c r="AA30" s="22">
         <f>SUM(Z30+('Projection Expansion data'!AA30-'Projection Expansion data'!Z30)*'Baseline data'!$H29)</f>
-        <v>100967.33065172989</v>
+        <v>104220.35594585107</v>
       </c>
       <c r="AB30" s="22">
         <f>SUM(AA30+('Projection Expansion data'!AB30-'Projection Expansion data'!AA30)*'Baseline data'!$H29)</f>
-        <v>102252.1586276094</v>
+        <v>105830.4864511427</v>
       </c>
       <c r="AC30" s="22">
         <f>SUM(AB30+('Projection Expansion data'!AC30-'Projection Expansion data'!AB30)*'Baseline data'!$H29)</f>
-        <v>103536.98660348891</v>
+        <v>107440.61695643433</v>
       </c>
       <c r="AD30" s="22">
         <f>SUM(AC30+('Projection Expansion data'!AD30-'Projection Expansion data'!AC30)*'Baseline data'!$H29)</f>
-        <v>104821.81457936842</v>
+        <v>109050.74746172596</v>
       </c>
       <c r="AE30" s="22">
         <f>SUM(AD30+('Projection Expansion data'!AE30-'Projection Expansion data'!AD30)*'Baseline data'!$H29)</f>
-        <v>106106.64255524793</v>
+        <v>110660.87796701759</v>
       </c>
       <c r="AF30" s="22">
         <f>SUM(AE30+('Projection Expansion data'!AF30-'Projection Expansion data'!AE30)*'Baseline data'!$H29)</f>
-        <v>107391.47053112744</v>
+        <v>112271.00847230921</v>
       </c>
       <c r="AG30" s="22">
         <f>SUM(AF30+('Projection Expansion data'!AG30-'Projection Expansion data'!AF30)*'Baseline data'!$H29)</f>
-        <v>108676.29850700696</v>
+        <v>113881.13897760084</v>
       </c>
       <c r="AH30" s="22">
         <f>SUM(AG30+('Projection Expansion data'!AH30-'Projection Expansion data'!AG30)*'Baseline data'!$H29)</f>
-        <v>109961.12648288647</v>
+        <v>115491.26948289247</v>
       </c>
       <c r="AI30" s="22">
         <f>SUM(AH30+('Projection Expansion data'!AI30-'Projection Expansion data'!AH30)*'Baseline data'!$H29)</f>
-        <v>111245.95445876598</v>
+        <v>117101.3999881841</v>
       </c>
       <c r="AJ30" s="22">
         <f>SUM(AI30+('Projection Expansion data'!AJ30-'Projection Expansion data'!AI30)*'Baseline data'!$H29)</f>
-        <v>112530.78243464549</v>
+        <v>118711.53049347573</v>
       </c>
       <c r="AK30" s="22">
         <f>SUM(AJ30+('Projection Expansion data'!AK30-'Projection Expansion data'!AJ30)*'Baseline data'!$H29)</f>
-        <v>113815.610410525</v>
+        <v>120321.66099876736</v>
       </c>
       <c r="AL30" s="22">
         <f>SUM(AK30+('Projection Expansion data'!AL30-'Projection Expansion data'!AK30)*'Baseline data'!$H29)</f>
-        <v>115100.43838640451</v>
+        <v>121931.79150405899</v>
       </c>
       <c r="AM30" s="22">
         <f>SUM(AL30+('Projection Expansion data'!AM30-'Projection Expansion data'!AL30)*'Baseline data'!$H29)</f>
-        <v>116385.26636228402</v>
+        <v>123541.92200935062</v>
       </c>
       <c r="AN30" s="22">
         <f>SUM(AM30+('Projection Expansion data'!AN30-'Projection Expansion data'!AM30)*'Baseline data'!$H29)</f>
-        <v>117670.09433816353</v>
+        <v>125152.05251464224</v>
       </c>
       <c r="AO30" s="22">
         <f>SUM(AN30+('Projection Expansion data'!AO30-'Projection Expansion data'!AN30)*'Baseline data'!$H29)</f>
-        <v>118954.92231404304</v>
+        <v>126762.18301993387</v>
       </c>
       <c r="AP30" s="22">
         <f>SUM(AO30+('Projection Expansion data'!AP30-'Projection Expansion data'!AO30)*'Baseline data'!$H29)</f>
-        <v>120239.75028992255</v>
+        <v>128372.3135252255</v>
       </c>
       <c r="AQ30" s="22">
         <f>SUM(AP30+('Projection Expansion data'!AQ30-'Projection Expansion data'!AP30)*'Baseline data'!$H29)</f>
-        <v>121524.57826580206</v>
+        <v>129982.44403051713</v>
       </c>
       <c r="AR30" s="22">
         <f>SUM(AQ30+('Projection Expansion data'!AR30-'Projection Expansion data'!AQ30)*'Baseline data'!$H29)</f>
-        <v>122809.40624168157</v>
+        <v>131592.57453580876</v>
       </c>
       <c r="AS30" s="22">
         <f>SUM(AR30+('Projection Expansion data'!AS30-'Projection Expansion data'!AR30)*'Baseline data'!$H29)</f>
-        <v>124094.23421756108</v>
+        <v>133202.70504110039</v>
       </c>
       <c r="AT30" s="22">
         <f>SUM(AS30+('Projection Expansion data'!AT30-'Projection Expansion data'!AS30)*'Baseline data'!$H29)</f>
-        <v>125379.06219344059</v>
+        <v>134812.83554639202</v>
       </c>
       <c r="AU30" s="22">
         <f>SUM(AT30+('Projection Expansion data'!AU30-'Projection Expansion data'!AT30)*'Baseline data'!$H29)</f>
-        <v>126663.8901693201</v>
+        <v>136422.96605168364</v>
       </c>
       <c r="AV30" s="22">
         <f>SUM(AU30+('Projection Expansion data'!AV30-'Projection Expansion data'!AU30)*'Baseline data'!$H29)</f>
-        <v>127948.71814519961</v>
+        <v>138033.09655697527</v>
       </c>
     </row>
     <row r="31" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -45671,7 +45974,7 @@
     </row>
     <row r="32" spans="1:48" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="22">
         <f t="shared" ref="B32:AV32" si="0">SUM(B5:B30)</f>
@@ -45739,127 +46042,127 @@
       </c>
       <c r="R32" s="22">
         <f t="shared" si="0"/>
-        <v>2034756.2032687096</v>
+        <v>2034799.6550313649</v>
       </c>
       <c r="S32" s="22">
         <f t="shared" si="0"/>
-        <v>2064192.270460695</v>
+        <v>2064279.1739860061</v>
       </c>
       <c r="T32" s="22">
         <f t="shared" si="0"/>
-        <v>2093628.3376526812</v>
+        <v>2093758.6929406477</v>
       </c>
       <c r="U32" s="22">
         <f t="shared" si="0"/>
-        <v>2123064.4048446668</v>
+        <v>2123238.2118952889</v>
       </c>
       <c r="V32" s="22">
         <f t="shared" si="0"/>
-        <v>2152500.4720366532</v>
+        <v>2152717.7308499301</v>
       </c>
       <c r="W32" s="22">
         <f t="shared" si="0"/>
-        <v>2181936.5392286391</v>
+        <v>2182197.2498045717</v>
       </c>
       <c r="X32" s="22">
         <f t="shared" si="0"/>
-        <v>2211372.6064206259</v>
+        <v>2211676.7687592134</v>
       </c>
       <c r="Y32" s="22">
         <f t="shared" si="0"/>
-        <v>2240808.6736126123</v>
+        <v>2241156.287713856</v>
       </c>
       <c r="Z32" s="22">
         <f t="shared" si="0"/>
-        <v>2270244.7408045973</v>
+        <v>2270635.8066684962</v>
       </c>
       <c r="AA32" s="22">
         <f t="shared" si="0"/>
-        <v>2299680.8079965832</v>
+        <v>2300115.3256231383</v>
       </c>
       <c r="AB32" s="22">
         <f t="shared" si="0"/>
-        <v>2329116.8751885691</v>
+        <v>2329594.8445777791</v>
       </c>
       <c r="AC32" s="22">
         <f t="shared" si="0"/>
-        <v>2358552.9423805559</v>
+        <v>2359074.3635324207</v>
       </c>
       <c r="AD32" s="22">
         <f t="shared" si="0"/>
-        <v>2387989.0095725413</v>
+        <v>2388553.8824870619</v>
       </c>
       <c r="AE32" s="22">
         <f t="shared" si="0"/>
-        <v>2417425.0767645277</v>
+        <v>2418033.4014417036</v>
       </c>
       <c r="AF32" s="22">
         <f t="shared" si="0"/>
-        <v>2446861.1439565127</v>
+        <v>2447512.9203963447</v>
       </c>
       <c r="AG32" s="22">
         <f t="shared" si="0"/>
-        <v>2476297.2111484986</v>
+        <v>2476992.4393509855</v>
       </c>
       <c r="AH32" s="22">
         <f t="shared" si="0"/>
-        <v>2505733.2783404845</v>
+        <v>2506471.9583056276</v>
       </c>
       <c r="AI32" s="22">
         <f t="shared" si="0"/>
-        <v>2535169.3455324718</v>
+        <v>2535951.4772602697</v>
       </c>
       <c r="AJ32" s="22">
         <f t="shared" si="0"/>
-        <v>2564605.4127244572</v>
+        <v>2565430.9962149113</v>
       </c>
       <c r="AK32" s="22">
         <f t="shared" si="0"/>
-        <v>2594041.4799164431</v>
+        <v>2594910.5151695525</v>
       </c>
       <c r="AL32" s="22">
         <f t="shared" si="0"/>
-        <v>2623477.547108429</v>
+        <v>2624390.0341241932</v>
       </c>
       <c r="AM32" s="22">
         <f t="shared" si="0"/>
-        <v>2652913.6143004159</v>
+        <v>2653869.5530788354</v>
       </c>
       <c r="AN32" s="22">
         <f t="shared" si="0"/>
-        <v>2682349.6814924018</v>
+        <v>2683349.072033477</v>
       </c>
       <c r="AO32" s="22">
         <f t="shared" si="0"/>
-        <v>2711785.7486843867</v>
+        <v>2712828.5909881168</v>
       </c>
       <c r="AP32" s="22">
         <f t="shared" si="0"/>
-        <v>2741221.8158763731</v>
+        <v>2742308.1099427589</v>
       </c>
       <c r="AQ32" s="22">
         <f t="shared" si="0"/>
-        <v>2770657.8830683585</v>
+        <v>2771787.628897401</v>
       </c>
       <c r="AR32" s="22">
         <f t="shared" si="0"/>
-        <v>2800093.9502603458</v>
+        <v>2801267.1478520427</v>
       </c>
       <c r="AS32" s="22">
         <f t="shared" si="0"/>
-        <v>2829530.0174523313</v>
+        <v>2830746.6668066834</v>
       </c>
       <c r="AT32" s="22">
         <f t="shared" si="0"/>
-        <v>2858966.0846443172</v>
+        <v>2860226.1857613246</v>
       </c>
       <c r="AU32" s="22">
         <f t="shared" si="0"/>
-        <v>2888402.1518363035</v>
+        <v>2889705.7047159662</v>
       </c>
       <c r="AV32" s="22">
         <f t="shared" si="0"/>
-        <v>2917838.219028289</v>
+        <v>2919185.2236706074</v>
       </c>
     </row>
     <row r="34" spans="17:46" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -45901,17 +46204,17 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="32">
         <v>2004</v>
@@ -46151,7 +46454,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="34">
         <f>SUM('[2]Employment baseline'!B6/'[2]Projection dwelling baseline'!B6)</f>
@@ -48507,7 +48810,7 @@
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="35">
         <f t="shared" ref="B32:AV32" si="0">SUM(B5:B30)</f>
